--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF44DBF9-9424-450D-8CF1-16F4ABA4FCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425975E3-DAF0-4F54-A8AA-C6E28291EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="elevidys" sheetId="3" r:id="rId3"/>
+    <sheet name="IP" sheetId="5" r:id="rId3"/>
+    <sheet name="Literature" sheetId="4" r:id="rId4"/>
+    <sheet name="elevidys" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>Price</t>
   </si>
@@ -139,17 +141,200 @@
     <t>Q424</t>
   </si>
   <si>
-    <t>Duchenne (DMD)</t>
+    <t>FDA remove request to halt</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>SG&amp;A y/y</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaids &amp; Deposits</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>Accrued Expenses</t>
+  </si>
+  <si>
+    <t>Deferred Revenue</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>Lease Liablities</t>
+  </si>
+  <si>
+    <t>Contingent</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>Liablities</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Phase III "EXPEDITION" in DMD n=400 NCT:NCT05967351</t>
+  </si>
+  <si>
+    <t>Phase III "ENVISION" in DMD n=148 NCT:NCT05881408</t>
+  </si>
+  <si>
+    <t>US Patient Pool</t>
+  </si>
+  <si>
+    <t>Treated</t>
+  </si>
+  <si>
+    <t>Ambulatory vs Non-Ambulatory</t>
+  </si>
+  <si>
+    <t>Elevidys, SRP-9001</t>
+  </si>
+  <si>
+    <t>delandistrogen moxeparvovec-rokl</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>search terms="</t>
+  </si>
+  <si>
+    <t>Patent</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Phase I/IIa "" in DMD n= NCT:NCT03375164</t>
+  </si>
+  <si>
+    <t>Phase I/II "" in DMD n= NCT:NCT03769116</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -160,6 +345,21 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -271,9 +471,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -323,8 +522,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -341,6 +547,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>124557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A53ADB-796F-8B29-445E-F2F7A044180B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10074519" y="109904"/>
+          <a:ext cx="21981" cy="11298115"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E814DECB-2ECA-4006-AB00-FBB8E65925DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4623288" y="21981"/>
+          <a:ext cx="0" cy="10653346"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,17 +971,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3649CA3D-BD6D-4E02-8579-6A8963C974F1}">
-  <dimension ref="B3:L17"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -679,192 +990,197 @@
     <col min="9" max="9" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20">
+        <v>16</v>
+      </c>
+    </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="21">
-        <v>13.37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22">
         <f>98.277</f>
         <v>98.277000000000001</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="21">
+        <f>K3*K2</f>
+        <v>1572.432</v>
+      </c>
+    </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
       <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="22">
-        <f>K4*K3</f>
-        <v>1313.9634899999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="J6" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K5" s="21">
         <f>240.8+281.9</f>
         <v>522.70000000000005</v>
       </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="21">
+        <f>1138.3+205.46+325+47.4+1</f>
+        <v>1717.16</v>
+      </c>
       <c r="L6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
       <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="22">
-        <f>1138.3+205.46+325+47.4+1</f>
-        <v>1717.16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="K7" s="21">
+        <f>K4+K6-K5</f>
+        <v>2766.8919999999998</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="J8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="22">
-        <f>K5+K7-K6</f>
-        <v>2508.4234900000001</v>
-      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="15"/>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="K10" s="22"/>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="16"/>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="16"/>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="16"/>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="19">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="18">
         <v>45857</v>
       </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="elevidys!A1" display="Elevidys (delandistrogen moxeparvovec-rokl)" xr:uid="{46F2F0FF-39E6-443B-9D44-8A57237C41D9}"/>
+    <hyperlink ref="B3" location="elevidys!A1" display="Elevidys (delandistrogen moxeparvovec-rokl)" xr:uid="{46F2F0FF-39E6-443B-9D44-8A57237C41D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -872,84 +1188,1787 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1A893-8ADE-4729-B205-F45738EE77EA}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:DI42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="21"/>
+    <col min="6" max="6" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="C2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="23">
+        <v>2020</v>
+      </c>
+      <c r="M2" s="23">
+        <f>L2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="N2" s="23">
+        <f t="shared" ref="N2:U2" si="0">M2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="O2" s="23">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="P2" s="23">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="Q2" s="23">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="R2" s="23">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="S2" s="23">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="T2" s="23">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="U2" s="23">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:113" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="24">
+        <v>359.5</v>
+      </c>
+      <c r="G3" s="24">
+        <v>611.5</v>
+      </c>
+      <c r="N3" s="24">
+        <v>933</v>
+      </c>
+      <c r="O3" s="24">
+        <v>1243.3</v>
+      </c>
+      <c r="P3" s="24">
+        <v>1901.98</v>
+      </c>
+      <c r="Q3" s="24">
+        <f>P3*1.01</f>
+        <v>1920.9998000000001</v>
+      </c>
+      <c r="R3" s="24">
+        <f t="shared" ref="R3:U3" si="1">Q3*1.01</f>
+        <v>1940.2097980000001</v>
+      </c>
+      <c r="S3" s="24">
+        <f t="shared" si="1"/>
+        <v>1959.6118959800001</v>
+      </c>
+      <c r="T3" s="24">
+        <f t="shared" si="1"/>
+        <v>1979.2080149398</v>
+      </c>
+      <c r="U3" s="24">
+        <f t="shared" si="1"/>
+        <v>1999.0000950891981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="21">
+        <v>139.97999999999999</v>
+      </c>
+      <c r="O4" s="21">
+        <v>150.34</v>
+      </c>
+      <c r="P4" s="21">
+        <v>319.10000000000002</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>Q3*(1-Q18)</f>
+        <v>384.19995999999992</v>
+      </c>
+      <c r="R4" s="21">
+        <f t="shared" ref="R4:U4" si="2">R3*(1-R18)</f>
+        <v>388.04195959999993</v>
+      </c>
+      <c r="S4" s="21">
+        <f t="shared" si="2"/>
+        <v>391.92237919599995</v>
+      </c>
+      <c r="T4" s="21">
+        <f t="shared" si="2"/>
+        <v>395.8416029879599</v>
+      </c>
+      <c r="U4" s="21">
+        <f t="shared" si="2"/>
+        <v>399.80001901783953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="21">
+        <f>L3-L4</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <f>M3-M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <f>N3-N4</f>
+        <v>793.02</v>
+      </c>
+      <c r="O5" s="21">
+        <f t="shared" ref="O5:P5" si="3">O3-O4</f>
+        <v>1092.96</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="shared" si="3"/>
+        <v>1582.88</v>
+      </c>
+      <c r="Q5" s="21">
+        <f t="shared" ref="Q5" si="4">Q3-Q4</f>
+        <v>1536.7998400000001</v>
+      </c>
+      <c r="R5" s="21">
+        <f t="shared" ref="R5" si="5">R3-R4</f>
+        <v>1552.1678384000002</v>
+      </c>
+      <c r="S5" s="21">
+        <f t="shared" ref="S5" si="6">S3-S4</f>
+        <v>1567.6895167840003</v>
+      </c>
+      <c r="T5" s="21">
+        <f t="shared" ref="T5" si="7">T3-T4</f>
+        <v>1583.3664119518401</v>
+      </c>
+      <c r="U5" s="21">
+        <f t="shared" ref="U5" si="8">U3-U4</f>
+        <v>1599.2000760713586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="21">
+        <v>877</v>
+      </c>
+      <c r="O6" s="21">
+        <v>877.4</v>
+      </c>
+      <c r="P6" s="21">
+        <v>804.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="21">
+        <v>451.4</v>
+      </c>
+      <c r="O7" s="21">
+        <v>481.9</v>
+      </c>
+      <c r="P7" s="21">
+        <v>557.9</v>
+      </c>
+      <c r="Q7" s="21">
+        <f>P7*1.02</f>
+        <v>569.05799999999999</v>
+      </c>
+      <c r="R7" s="21">
+        <f t="shared" ref="R7:U7" si="9">Q7*1.02</f>
+        <v>580.43916000000002</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="9"/>
+        <v>592.04794320000008</v>
+      </c>
+      <c r="T7" s="21">
+        <f t="shared" si="9"/>
+        <v>603.88890206400004</v>
+      </c>
+      <c r="U7" s="21">
+        <f t="shared" si="9"/>
+        <v>615.96668010528003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="21">
+        <f>SUM(L6:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" ref="M8:U8" si="10">SUM(M6:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="21">
+        <f t="shared" si="10"/>
+        <v>1328.4</v>
+      </c>
+      <c r="O8" s="21">
+        <f t="shared" si="10"/>
+        <v>1359.3</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="10"/>
+        <v>1362.4</v>
+      </c>
+      <c r="Q8" s="21">
+        <f t="shared" si="10"/>
+        <v>569.05799999999999</v>
+      </c>
+      <c r="R8" s="21">
+        <f t="shared" si="10"/>
+        <v>580.43916000000002</v>
+      </c>
+      <c r="S8" s="21">
+        <f t="shared" si="10"/>
+        <v>592.04794320000008</v>
+      </c>
+      <c r="T8" s="21">
+        <f t="shared" si="10"/>
+        <v>603.88890206400004</v>
+      </c>
+      <c r="U8" s="21">
+        <f t="shared" si="10"/>
+        <v>615.96668010528003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="21">
+        <f>L5-L8</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <f t="shared" ref="M9:U9" si="11">M5-M8</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="21">
+        <f t="shared" si="11"/>
+        <v>-535.38000000000011</v>
+      </c>
+      <c r="O9" s="21">
+        <f t="shared" si="11"/>
+        <v>-266.33999999999992</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" si="11"/>
+        <v>220.48000000000002</v>
+      </c>
+      <c r="Q9" s="21">
+        <f t="shared" si="11"/>
+        <v>967.74184000000014</v>
+      </c>
+      <c r="R9" s="21">
+        <f t="shared" si="11"/>
+        <v>971.72867840000015</v>
+      </c>
+      <c r="S9" s="21">
+        <f t="shared" si="11"/>
+        <v>975.64157358400018</v>
+      </c>
+      <c r="T9" s="21">
+        <f t="shared" si="11"/>
+        <v>979.47750988784003</v>
+      </c>
+      <c r="U9" s="21">
+        <f t="shared" si="11"/>
+        <v>983.23339596607855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="21">
+        <v>-28.3</v>
+      </c>
+      <c r="O10" s="21">
+        <v>33</v>
+      </c>
+      <c r="P10" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="Q10" s="21">
+        <f>P21*$X$15</f>
+        <v>4.354000000000001</v>
+      </c>
+      <c r="R10" s="21">
+        <f t="shared" ref="R10:U10" si="12">Q21*$X$15</f>
+        <v>19.907533440000005</v>
+      </c>
+      <c r="S10" s="21">
+        <f t="shared" si="12"/>
+        <v>35.773712829440008</v>
+      </c>
+      <c r="T10" s="21">
+        <f t="shared" si="12"/>
+        <v>51.956357412055048</v>
+      </c>
+      <c r="U10" s="21">
+        <f t="shared" si="12"/>
+        <v>68.459299288853373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="21">
+        <f>L9+L10</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
+        <f t="shared" ref="M11:U11" si="13">M9+M10</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="21">
+        <f t="shared" si="13"/>
+        <v>-563.68000000000006</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" si="13"/>
+        <v>-233.33999999999992</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="13"/>
+        <v>263.18</v>
+      </c>
+      <c r="Q11" s="21">
+        <f t="shared" si="13"/>
+        <v>972.09584000000018</v>
+      </c>
+      <c r="R11" s="21">
+        <f t="shared" si="13"/>
+        <v>991.6362118400001</v>
+      </c>
+      <c r="S11" s="21">
+        <f t="shared" si="13"/>
+        <v>1011.4152864134402</v>
+      </c>
+      <c r="T11" s="21">
+        <f t="shared" si="13"/>
+        <v>1031.4338672998952</v>
+      </c>
+      <c r="U11" s="21">
+        <f t="shared" si="13"/>
+        <v>1051.692695254932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="21">
+        <v>13.5</v>
+      </c>
+      <c r="O12" s="21">
+        <v>15.9</v>
+      </c>
+      <c r="P12" s="21">
+        <v>25.5</v>
+      </c>
+      <c r="Q12" s="21">
+        <f>Q11*0.2</f>
+        <v>194.41916800000004</v>
+      </c>
+      <c r="R12" s="21">
+        <f t="shared" ref="R12:U12" si="14">R11*0.2</f>
+        <v>198.32724236800004</v>
+      </c>
+      <c r="S12" s="21">
+        <f t="shared" si="14"/>
+        <v>202.28305728268805</v>
+      </c>
+      <c r="T12" s="21">
+        <f t="shared" si="14"/>
+        <v>206.28677345997903</v>
+      </c>
+      <c r="U12" s="21">
+        <f t="shared" si="14"/>
+        <v>210.33853905098641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="21">
+        <f>L11-L12</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" ref="M13:U13" si="15">M11-M12</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" si="15"/>
+        <v>-577.18000000000006</v>
+      </c>
+      <c r="O13" s="21">
+        <f t="shared" si="15"/>
+        <v>-249.23999999999992</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" si="15"/>
+        <v>237.68</v>
+      </c>
+      <c r="Q13" s="21">
+        <f t="shared" si="15"/>
+        <v>777.67667200000017</v>
+      </c>
+      <c r="R13" s="21">
+        <f t="shared" si="15"/>
+        <v>793.30896947200006</v>
+      </c>
+      <c r="S13" s="21">
+        <f t="shared" si="15"/>
+        <v>809.13222913075219</v>
+      </c>
+      <c r="T13" s="21">
+        <f t="shared" si="15"/>
+        <v>825.14709383991612</v>
+      </c>
+      <c r="U13" s="21">
+        <f t="shared" si="15"/>
+        <v>841.35415620394565</v>
+      </c>
+      <c r="V13" s="21">
+        <f>U13*(1+$X$16)</f>
+        <v>832.94061464190622</v>
+      </c>
+      <c r="W13" s="21">
+        <f t="shared" ref="W13:CH13" si="16">V13*(1+$X$16)</f>
+        <v>824.61120849548718</v>
+      </c>
+      <c r="X13" s="21">
+        <f t="shared" si="16"/>
+        <v>816.36509641053226</v>
+      </c>
+      <c r="Y13" s="21">
+        <f t="shared" si="16"/>
+        <v>808.20144544642687</v>
+      </c>
+      <c r="Z13" s="21">
+        <f t="shared" si="16"/>
+        <v>800.11943099196264</v>
+      </c>
+      <c r="AA13" s="21">
+        <f t="shared" si="16"/>
+        <v>792.11823668204306</v>
+      </c>
+      <c r="AB13" s="21">
+        <f t="shared" si="16"/>
+        <v>784.19705431522266</v>
+      </c>
+      <c r="AC13" s="21">
+        <f t="shared" si="16"/>
+        <v>776.35508377207043</v>
+      </c>
+      <c r="AD13" s="21">
+        <f t="shared" si="16"/>
+        <v>768.59153293434974</v>
+      </c>
+      <c r="AE13" s="21">
+        <f t="shared" si="16"/>
+        <v>760.90561760500623</v>
+      </c>
+      <c r="AF13" s="21">
+        <f t="shared" si="16"/>
+        <v>753.29656142895612</v>
+      </c>
+      <c r="AG13" s="21">
+        <f t="shared" si="16"/>
+        <v>745.76359581466659</v>
+      </c>
+      <c r="AH13" s="21">
+        <f t="shared" si="16"/>
+        <v>738.30595985651996</v>
+      </c>
+      <c r="AI13" s="21">
+        <f t="shared" si="16"/>
+        <v>730.92290025795478</v>
+      </c>
+      <c r="AJ13" s="21">
+        <f t="shared" si="16"/>
+        <v>723.61367125537527</v>
+      </c>
+      <c r="AK13" s="21">
+        <f t="shared" si="16"/>
+        <v>716.37753454282154</v>
+      </c>
+      <c r="AL13" s="21">
+        <f t="shared" si="16"/>
+        <v>709.2137591973933</v>
+      </c>
+      <c r="AM13" s="21">
+        <f t="shared" si="16"/>
+        <v>702.12162160541936</v>
+      </c>
+      <c r="AN13" s="21">
+        <f t="shared" si="16"/>
+        <v>695.10040538936516</v>
+      </c>
+      <c r="AO13" s="21">
+        <f t="shared" si="16"/>
+        <v>688.14940133547145</v>
+      </c>
+      <c r="AP13" s="21">
+        <f t="shared" si="16"/>
+        <v>681.26790732211668</v>
+      </c>
+      <c r="AQ13" s="21">
+        <f t="shared" si="16"/>
+        <v>674.45522824889554</v>
+      </c>
+      <c r="AR13" s="21">
+        <f t="shared" si="16"/>
+        <v>667.7106759664066</v>
+      </c>
+      <c r="AS13" s="21">
+        <f t="shared" si="16"/>
+        <v>661.03356920674253</v>
+      </c>
+      <c r="AT13" s="21">
+        <f t="shared" si="16"/>
+        <v>654.42323351467508</v>
+      </c>
+      <c r="AU13" s="21">
+        <f t="shared" si="16"/>
+        <v>647.87900117952836</v>
+      </c>
+      <c r="AV13" s="21">
+        <f t="shared" si="16"/>
+        <v>641.40021116773312</v>
+      </c>
+      <c r="AW13" s="21">
+        <f t="shared" si="16"/>
+        <v>634.98620905605583</v>
+      </c>
+      <c r="AX13" s="21">
+        <f t="shared" si="16"/>
+        <v>628.63634696549525</v>
+      </c>
+      <c r="AY13" s="21">
+        <f t="shared" si="16"/>
+        <v>622.34998349584032</v>
+      </c>
+      <c r="AZ13" s="21">
+        <f t="shared" si="16"/>
+        <v>616.12648366088195</v>
+      </c>
+      <c r="BA13" s="21">
+        <f t="shared" si="16"/>
+        <v>609.96521882427317</v>
+      </c>
+      <c r="BB13" s="21">
+        <f t="shared" si="16"/>
+        <v>603.86556663603039</v>
+      </c>
+      <c r="BC13" s="21">
+        <f t="shared" si="16"/>
+        <v>597.82691096967005</v>
+      </c>
+      <c r="BD13" s="21">
+        <f t="shared" si="16"/>
+        <v>591.84864185997333</v>
+      </c>
+      <c r="BE13" s="21">
+        <f t="shared" si="16"/>
+        <v>585.93015544137359</v>
+      </c>
+      <c r="BF13" s="21">
+        <f t="shared" si="16"/>
+        <v>580.07085388695987</v>
+      </c>
+      <c r="BG13" s="21">
+        <f t="shared" si="16"/>
+        <v>574.2701453480903</v>
+      </c>
+      <c r="BH13" s="21">
+        <f t="shared" si="16"/>
+        <v>568.52744389460941</v>
+      </c>
+      <c r="BI13" s="21">
+        <f t="shared" si="16"/>
+        <v>562.84216945566334</v>
+      </c>
+      <c r="BJ13" s="21">
+        <f t="shared" si="16"/>
+        <v>557.21374776110667</v>
+      </c>
+      <c r="BK13" s="21">
+        <f t="shared" si="16"/>
+        <v>551.64161028349565</v>
+      </c>
+      <c r="BL13" s="21">
+        <f t="shared" si="16"/>
+        <v>546.12519418066074</v>
+      </c>
+      <c r="BM13" s="21">
+        <f t="shared" si="16"/>
+        <v>540.66394223885413</v>
+      </c>
+      <c r="BN13" s="21">
+        <f t="shared" si="16"/>
+        <v>535.25730281646554</v>
+      </c>
+      <c r="BO13" s="21">
+        <f t="shared" si="16"/>
+        <v>529.90472978830087</v>
+      </c>
+      <c r="BP13" s="21">
+        <f t="shared" si="16"/>
+        <v>524.60568249041785</v>
+      </c>
+      <c r="BQ13" s="21">
+        <f t="shared" si="16"/>
+        <v>519.3596256655137</v>
+      </c>
+      <c r="BR13" s="21">
+        <f t="shared" si="16"/>
+        <v>514.16602940885855</v>
+      </c>
+      <c r="BS13" s="21">
+        <f t="shared" si="16"/>
+        <v>509.02436911476997</v>
+      </c>
+      <c r="BT13" s="21">
+        <f t="shared" si="16"/>
+        <v>503.93412542362228</v>
+      </c>
+      <c r="BU13" s="21">
+        <f t="shared" si="16"/>
+        <v>498.89478416938607</v>
+      </c>
+      <c r="BV13" s="21">
+        <f t="shared" si="16"/>
+        <v>493.90583632769221</v>
+      </c>
+      <c r="BW13" s="21">
+        <f t="shared" si="16"/>
+        <v>488.96677796441531</v>
+      </c>
+      <c r="BX13" s="21">
+        <f t="shared" si="16"/>
+        <v>484.07711018477113</v>
+      </c>
+      <c r="BY13" s="21">
+        <f t="shared" si="16"/>
+        <v>479.23633908292339</v>
+      </c>
+      <c r="BZ13" s="21">
+        <f t="shared" si="16"/>
+        <v>474.44397569209417</v>
+      </c>
+      <c r="CA13" s="21">
+        <f t="shared" si="16"/>
+        <v>469.69953593517323</v>
+      </c>
+      <c r="CB13" s="21">
+        <f t="shared" si="16"/>
+        <v>465.00254057582151</v>
+      </c>
+      <c r="CC13" s="21">
+        <f t="shared" si="16"/>
+        <v>460.35251517006327</v>
+      </c>
+      <c r="CD13" s="21">
+        <f t="shared" si="16"/>
+        <v>455.74899001836263</v>
+      </c>
+      <c r="CE13" s="21">
+        <f t="shared" si="16"/>
+        <v>451.19150011817902</v>
+      </c>
+      <c r="CF13" s="21">
+        <f t="shared" si="16"/>
+        <v>446.6795851169972</v>
+      </c>
+      <c r="CG13" s="21">
+        <f t="shared" si="16"/>
+        <v>442.21278926582721</v>
+      </c>
+      <c r="CH13" s="21">
+        <f t="shared" si="16"/>
+        <v>437.79066137316892</v>
+      </c>
+      <c r="CI13" s="21">
+        <f t="shared" ref="CI13:DI13" si="17">CH13*(1+$X$16)</f>
+        <v>433.41275475943723</v>
+      </c>
+      <c r="CJ13" s="21">
+        <f t="shared" si="17"/>
+        <v>429.07862721184284</v>
+      </c>
+      <c r="CK13" s="21">
+        <f t="shared" si="17"/>
+        <v>424.78784093972439</v>
+      </c>
+      <c r="CL13" s="21">
+        <f t="shared" si="17"/>
+        <v>420.53996253032716</v>
+      </c>
+      <c r="CM13" s="21">
+        <f t="shared" si="17"/>
+        <v>416.33456290502386</v>
+      </c>
+      <c r="CN13" s="21">
+        <f t="shared" si="17"/>
+        <v>412.17121727597362</v>
+      </c>
+      <c r="CO13" s="21">
+        <f t="shared" si="17"/>
+        <v>408.0495051032139</v>
+      </c>
+      <c r="CP13" s="21">
+        <f t="shared" si="17"/>
+        <v>403.96901005218177</v>
+      </c>
+      <c r="CQ13" s="21">
+        <f t="shared" si="17"/>
+        <v>399.92931995165998</v>
+      </c>
+      <c r="CR13" s="21">
+        <f t="shared" si="17"/>
+        <v>395.93002675214336</v>
+      </c>
+      <c r="CS13" s="21">
+        <f t="shared" si="17"/>
+        <v>391.97072648462193</v>
+      </c>
+      <c r="CT13" s="21">
+        <f t="shared" si="17"/>
+        <v>388.0510192197757</v>
+      </c>
+      <c r="CU13" s="21">
+        <f t="shared" si="17"/>
+        <v>384.17050902757796</v>
+      </c>
+      <c r="CV13" s="21">
+        <f t="shared" si="17"/>
+        <v>380.32880393730215</v>
+      </c>
+      <c r="CW13" s="21">
+        <f t="shared" si="17"/>
+        <v>376.52551589792915</v>
+      </c>
+      <c r="CX13" s="21">
+        <f t="shared" si="17"/>
+        <v>372.76026073894985</v>
+      </c>
+      <c r="CY13" s="21">
+        <f t="shared" si="17"/>
+        <v>369.03265813156037</v>
+      </c>
+      <c r="CZ13" s="21">
+        <f t="shared" si="17"/>
+        <v>365.34233155024475</v>
+      </c>
+      <c r="DA13" s="21">
+        <f t="shared" si="17"/>
+        <v>361.68890823474231</v>
+      </c>
+      <c r="DB13" s="21">
+        <f t="shared" si="17"/>
+        <v>358.07201915239489</v>
+      </c>
+      <c r="DC13" s="21">
+        <f t="shared" si="17"/>
+        <v>354.49129896087095</v>
+      </c>
+      <c r="DD13" s="21">
+        <f t="shared" si="17"/>
+        <v>350.94638597126226</v>
+      </c>
+      <c r="DE13" s="21">
+        <f t="shared" si="17"/>
+        <v>347.43692211154962</v>
+      </c>
+      <c r="DF13" s="21">
+        <f t="shared" si="17"/>
+        <v>343.9625528904341</v>
+      </c>
+      <c r="DG13" s="21">
+        <f t="shared" si="17"/>
+        <v>340.52292736152975</v>
+      </c>
+      <c r="DH13" s="21">
+        <f t="shared" si="17"/>
+        <v>337.11769808791445</v>
+      </c>
+      <c r="DI13" s="21">
+        <f t="shared" si="17"/>
+        <v>333.74652110703528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="21">
+        <v>87.558999999999997</v>
+      </c>
+      <c r="O14" s="21">
+        <v>92.397999999999996</v>
+      </c>
+      <c r="P14" s="21">
+        <v>95.1</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>P14</f>
+        <v>95.1</v>
+      </c>
+      <c r="R14" s="21">
+        <f t="shared" ref="R14:U14" si="18">Q14</f>
+        <v>95.1</v>
+      </c>
+      <c r="S14" s="21">
+        <f t="shared" si="18"/>
+        <v>95.1</v>
+      </c>
+      <c r="T14" s="21">
+        <f t="shared" si="18"/>
+        <v>95.1</v>
+      </c>
+      <c r="U14" s="21">
+        <f t="shared" si="18"/>
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="20" t="e">
+        <f>L13/L14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" s="20" t="e">
+        <f>M13/M14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="20">
+        <f>N13/N14</f>
+        <v>-6.5918980344681879</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" ref="O15:P15" si="19">O13/O14</f>
+        <v>-2.6974609840039823</v>
+      </c>
+      <c r="P15" s="20">
+        <f t="shared" si="19"/>
+        <v>2.4992639327024189</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" ref="Q15" si="20">Q13/Q14</f>
+        <v>8.1774623764458489</v>
+      </c>
+      <c r="R15" s="20">
+        <f t="shared" ref="R15" si="21">R13/R14</f>
+        <v>8.3418398472344908</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" ref="S15" si="22">S13/S14</f>
+        <v>8.5082253326051767</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" ref="T15" si="23">T13/T14</f>
+        <v>8.6766255924281399</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" ref="U15" si="24">U13/U14</f>
+        <v>8.8470468580856547</v>
+      </c>
+      <c r="W15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" s="26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="W16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="X16" s="26">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="25">
+        <f>O3/N3-1</f>
+        <v>0.33258306538049309</v>
+      </c>
+      <c r="P17" s="25">
+        <f>P3/O3-1</f>
+        <v>0.52978364031207281</v>
+      </c>
+      <c r="Q17" s="25">
+        <f t="shared" ref="Q17:U17" si="25">Q3/P3-1</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="R17" s="25">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="S17" s="25">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="T17" s="25">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="U17" s="25">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="X17" s="26">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="26">
+        <f>C5/C3</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="26" t="e">
+        <f t="shared" ref="D18:J18" si="26">D5/D3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="26" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="26" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="26" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="26" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="26" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="26" t="e">
+        <f>L5/L3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="26" t="e">
+        <f>M5/M3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="26">
+        <f>N5/N3</f>
+        <v>0.84996784565916395</v>
+      </c>
+      <c r="O18" s="26">
+        <f t="shared" ref="O18:P18" si="27">O5/O3</f>
+        <v>0.87907986809297844</v>
+      </c>
+      <c r="P18" s="26">
+        <f t="shared" si="27"/>
+        <v>0.83222746821733151</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="R18" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="S18" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="T18" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="U18" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="W18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" s="21">
+        <f>NPV(X17,Q13:XFD13)+Main!K5-Main!K6</f>
+        <v>8323.8042332358727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26">
+        <f>O7/N7-1</f>
+        <v>6.7567567567567544E-2</v>
+      </c>
+      <c r="P19" s="26">
+        <f>P7/O7-1</f>
+        <v>0.15770906827142572</v>
+      </c>
+      <c r="Q19" s="26">
+        <f t="shared" ref="Q19:U19" si="28">Q7/P7-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="R19" s="26">
+        <f t="shared" si="28"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="S19" s="26">
+        <f t="shared" si="28"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="T19" s="26">
+        <f t="shared" si="28"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="U19" s="26">
+        <f t="shared" si="28"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="W19" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19" s="20">
+        <f>X18/Main!K3</f>
+        <v>84.697378158021436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X20" s="26">
+        <f>X19/Main!K2-1</f>
+        <v>4.2935861348763398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="21">
+        <f>P22-P35</f>
+        <v>217.70000000000005</v>
+      </c>
+      <c r="Q21" s="21">
+        <f>P21+Q13</f>
+        <v>995.37667200000021</v>
+      </c>
+      <c r="R21" s="21">
+        <f t="shared" ref="R21:U21" si="29">Q21+R13</f>
+        <v>1788.6856414720003</v>
+      </c>
+      <c r="S21" s="21">
+        <f t="shared" si="29"/>
+        <v>2597.8178706027525</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" si="29"/>
+        <v>3422.9649644426686</v>
+      </c>
+      <c r="U21" s="21">
+        <f t="shared" si="29"/>
+        <v>4264.3191206466145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="21">
+        <f>1103+251.8</f>
+        <v>1354.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="21">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="21">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="21">
+        <v>276.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="21">
+        <f>90.5</f>
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="21">
+        <v>340.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" s="21">
+        <v>148.30000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="21">
+        <f>188+133+80</f>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="21">
+        <f>SUM(P22:P29)</f>
+        <v>3963.2000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="21">
+        <v>214.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" s="21">
+        <v>373.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="P34" s="21">
+        <f>130+325</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="21">
+        <f>1137.1</f>
+        <v>1137.0999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="21">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" s="21">
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" s="21">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" s="21">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" s="21">
+        <f>SUM(P32:P39)</f>
+        <v>2435.2000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" s="21">
+        <f>P30-P40</f>
+        <v>1528.0000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" s="21">
+        <f>P41+P40</f>
+        <v>3963.2000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E7D2AB81-0BD9-40CF-9991-10683543A777}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3A2F66-F77F-4FF1-81E8-6D4E8B2BBB7B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>359.5</v>
-      </c>
-      <c r="G3">
-        <v>611.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F7" s="23"/>
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E7D2AB81-0BD9-40CF-9991-10683543A777}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{411B41BB-FE21-41A9-8138-142297573DC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A26E37D-39D8-4DCA-A95F-E6EADC0FC071}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D30355-589F-41A0-8BDC-82712836F060}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E2015FD0-0F64-414E-A25D-956753729386}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A26E37D-39D8-4DCA-A95F-E6EADC0FC071}">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C18" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>2025</v>
+      </c>
+      <c r="D22">
+        <f>C22+1</f>
+        <v>2026</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:P22" si="0">D22+1</f>
+        <v>2027</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="21">
+        <f>15000*0.8</f>
+        <v>12000</v>
+      </c>
+      <c r="D23" s="21">
+        <f>C23*1.01</f>
+        <v>12120</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" ref="E23:P23" si="1">D23*1.01</f>
+        <v>12241.2</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="1"/>
+        <v>12363.612000000001</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="1"/>
+        <v>12487.248120000002</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="1"/>
+        <v>12612.120601200002</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="1"/>
+        <v>12738.241807212002</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="1"/>
+        <v>12865.624225284122</v>
+      </c>
+      <c r="K23" s="21">
+        <f t="shared" si="1"/>
+        <v>12994.280467536963</v>
+      </c>
+      <c r="L23" s="21">
+        <f t="shared" si="1"/>
+        <v>13124.223272212332</v>
+      </c>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="21">
+        <f>C23*0.02</f>
+        <v>240</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" ref="D24:P24" si="2">D23*0.02</f>
+        <v>242.4</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="2"/>
+        <v>244.82400000000001</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="2"/>
+        <v>247.27224000000004</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="2"/>
+        <v>249.74496240000005</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" si="2"/>
+        <v>252.24241202400006</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="2"/>
+        <v>254.76483614424004</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="2"/>
+        <v>257.31248450568245</v>
+      </c>
+      <c r="K24" s="21">
+        <f t="shared" si="2"/>
+        <v>259.88560935073923</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" si="2"/>
+        <v>262.48446544424667</v>
+      </c>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="D25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="E25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="F25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="G25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="H25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="I25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="J25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="K25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="L25" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="21">
+        <f>C25*C24/1000000</f>
+        <v>768</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" ref="D26:P26" si="3">D25*D24/1000000</f>
+        <v>775.68</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="3"/>
+        <v>783.43679999999995</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="3"/>
+        <v>791.2711680000001</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="3"/>
+        <v>799.18387968000013</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="3"/>
+        <v>807.17571847680017</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="3"/>
+        <v>815.24747566156816</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="3"/>
+        <v>823.39995041818383</v>
+      </c>
+      <c r="K26" s="21">
+        <f t="shared" si="3"/>
+        <v>831.63394992236556</v>
+      </c>
+      <c r="L26" s="21">
+        <f t="shared" si="3"/>
+        <v>839.95028942158933</v>
+      </c>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="30">
+        <f>NPV(C28,C26:XFD26)</f>
+        <v>5357.8557225903514</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F4D7F899-E715-4F27-9DC1-97C1D482042E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425975E3-DAF0-4F54-A8AA-C6E28291EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15034A8-8CA7-498C-B1BA-F8625F58B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
+    <workbookView xWindow="4860" yWindow="480" windowWidth="20850" windowHeight="14790" activeTab="1" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -527,7 +527,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -974,7 +973,7 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1190,11 +1189,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1A893-8ADE-4729-B205-F45738EE77EA}">
   <dimension ref="A1:DI42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,6 +1275,10 @@
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
     </row>
     <row r="3" spans="1:113" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
@@ -1298,24 +1301,23 @@
         <v>1901.98</v>
       </c>
       <c r="Q3" s="24">
-        <f>P3*1.01</f>
-        <v>1920.9998000000001</v>
+        <v>2300</v>
       </c>
       <c r="R3" s="24">
-        <f t="shared" ref="R3:U3" si="1">Q3*1.01</f>
-        <v>1940.2097980000001</v>
+        <f>Q3*1.01</f>
+        <v>2323</v>
       </c>
       <c r="S3" s="24">
-        <f t="shared" si="1"/>
-        <v>1959.6118959800001</v>
+        <f t="shared" ref="S3:U3" si="1">R3*1.01</f>
+        <v>2346.23</v>
       </c>
       <c r="T3" s="24">
         <f t="shared" si="1"/>
-        <v>1979.2080149398</v>
+        <v>2369.6923000000002</v>
       </c>
       <c r="U3" s="24">
         <f t="shared" si="1"/>
-        <v>1999.0000950891981</v>
+        <v>2393.3892230000001</v>
       </c>
     </row>
     <row r="4" spans="1:113" x14ac:dyDescent="0.2">
@@ -1333,23 +1335,23 @@
       </c>
       <c r="Q4" s="21">
         <f>Q3*(1-Q18)</f>
-        <v>384.19995999999992</v>
+        <v>459.99999999999989</v>
       </c>
       <c r="R4" s="21">
         <f t="shared" ref="R4:U4" si="2">R3*(1-R18)</f>
-        <v>388.04195959999993</v>
+        <v>464.59999999999991</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="2"/>
-        <v>391.92237919599995</v>
+        <v>469.24599999999992</v>
       </c>
       <c r="T4" s="21">
         <f t="shared" si="2"/>
-        <v>395.8416029879599</v>
+        <v>473.93845999999991</v>
       </c>
       <c r="U4" s="21">
         <f t="shared" si="2"/>
-        <v>399.80001901783953</v>
+        <v>478.6778445999999</v>
       </c>
     </row>
     <row r="5" spans="1:113" x14ac:dyDescent="0.2">
@@ -1378,23 +1380,23 @@
       </c>
       <c r="Q5" s="21">
         <f t="shared" ref="Q5" si="4">Q3-Q4</f>
-        <v>1536.7998400000001</v>
+        <v>1840</v>
       </c>
       <c r="R5" s="21">
         <f t="shared" ref="R5" si="5">R3-R4</f>
-        <v>1552.1678384000002</v>
+        <v>1858.4</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" ref="S5" si="6">S3-S4</f>
-        <v>1567.6895167840003</v>
+        <v>1876.9840000000002</v>
       </c>
       <c r="T5" s="21">
         <f t="shared" ref="T5" si="7">T3-T4</f>
-        <v>1583.3664119518401</v>
+        <v>1895.7538400000003</v>
       </c>
       <c r="U5" s="21">
         <f t="shared" ref="U5" si="8">U3-U4</f>
-        <v>1599.2000760713586</v>
+        <v>1914.7113784000003</v>
       </c>
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.2">
@@ -1425,24 +1427,24 @@
         <v>557.9</v>
       </c>
       <c r="Q7" s="21">
-        <f>P7*1.02</f>
-        <v>569.05799999999999</v>
+        <f>P7*1.1</f>
+        <v>613.69000000000005</v>
       </c>
       <c r="R7" s="21">
         <f t="shared" ref="R7:U7" si="9">Q7*1.02</f>
-        <v>580.43916000000002</v>
+        <v>625.96380000000011</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="9"/>
-        <v>592.04794320000008</v>
+        <v>638.4830760000001</v>
       </c>
       <c r="T7" s="21">
         <f t="shared" si="9"/>
-        <v>603.88890206400004</v>
+        <v>651.2527375200001</v>
       </c>
       <c r="U7" s="21">
         <f t="shared" si="9"/>
-        <v>615.96668010528003</v>
+        <v>664.27779227040014</v>
       </c>
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.2">
@@ -1471,23 +1473,23 @@
       </c>
       <c r="Q8" s="21">
         <f t="shared" si="10"/>
-        <v>569.05799999999999</v>
+        <v>613.69000000000005</v>
       </c>
       <c r="R8" s="21">
         <f t="shared" si="10"/>
-        <v>580.43916000000002</v>
+        <v>625.96380000000011</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="10"/>
-        <v>592.04794320000008</v>
+        <v>638.4830760000001</v>
       </c>
       <c r="T8" s="21">
         <f t="shared" si="10"/>
-        <v>603.88890206400004</v>
+        <v>651.2527375200001</v>
       </c>
       <c r="U8" s="21">
         <f t="shared" si="10"/>
-        <v>615.96668010528003</v>
+        <v>664.27779227040014</v>
       </c>
     </row>
     <row r="9" spans="1:113" x14ac:dyDescent="0.2">
@@ -1516,23 +1518,23 @@
       </c>
       <c r="Q9" s="21">
         <f t="shared" si="11"/>
-        <v>967.74184000000014</v>
+        <v>1226.31</v>
       </c>
       <c r="R9" s="21">
         <f t="shared" si="11"/>
-        <v>971.72867840000015</v>
+        <v>1232.4362000000001</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="11"/>
-        <v>975.64157358400018</v>
+        <v>1238.5009239999999</v>
       </c>
       <c r="T9" s="21">
         <f t="shared" si="11"/>
-        <v>979.47750988784003</v>
+        <v>1244.5011024800001</v>
       </c>
       <c r="U9" s="21">
         <f t="shared" si="11"/>
-        <v>983.23339596607855</v>
+        <v>1250.4335861296001</v>
       </c>
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.2">
@@ -1554,19 +1556,19 @@
       </c>
       <c r="R10" s="21">
         <f t="shared" ref="R10:U10" si="12">Q21*$X$15</f>
-        <v>19.907533440000005</v>
+        <v>24.044624000000002</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="12"/>
-        <v>35.773712829440008</v>
+        <v>44.148317184000007</v>
       </c>
       <c r="T10" s="21">
         <f t="shared" si="12"/>
-        <v>51.956357412055048</v>
+        <v>64.670705042944007</v>
       </c>
       <c r="U10" s="21">
         <f t="shared" si="12"/>
-        <v>68.459299288853373</v>
+        <v>85.617453963311135</v>
       </c>
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.2">
@@ -1595,23 +1597,23 @@
       </c>
       <c r="Q11" s="21">
         <f t="shared" si="13"/>
-        <v>972.09584000000018</v>
+        <v>1230.664</v>
       </c>
       <c r="R11" s="21">
         <f t="shared" si="13"/>
-        <v>991.6362118400001</v>
+        <v>1256.4808240000002</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="13"/>
-        <v>1011.4152864134402</v>
+        <v>1282.6492411839999</v>
       </c>
       <c r="T11" s="21">
         <f t="shared" si="13"/>
-        <v>1031.4338672998952</v>
+        <v>1309.1718075229442</v>
       </c>
       <c r="U11" s="21">
         <f t="shared" si="13"/>
-        <v>1051.692695254932</v>
+        <v>1336.0510400929113</v>
       </c>
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.2">
@@ -1629,23 +1631,23 @@
       </c>
       <c r="Q12" s="21">
         <f>Q11*0.2</f>
-        <v>194.41916800000004</v>
+        <v>246.1328</v>
       </c>
       <c r="R12" s="21">
         <f t="shared" ref="R12:U12" si="14">R11*0.2</f>
-        <v>198.32724236800004</v>
+        <v>251.29616480000004</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="14"/>
-        <v>202.28305728268805</v>
+        <v>256.52984823679998</v>
       </c>
       <c r="T12" s="21">
         <f t="shared" si="14"/>
-        <v>206.28677345997903</v>
+        <v>261.83436150458886</v>
       </c>
       <c r="U12" s="21">
         <f t="shared" si="14"/>
-        <v>210.33853905098641</v>
+        <v>267.21020801858225</v>
       </c>
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.2">
@@ -1674,391 +1676,391 @@
       </c>
       <c r="Q13" s="21">
         <f t="shared" si="15"/>
-        <v>777.67667200000017</v>
+        <v>984.53120000000001</v>
       </c>
       <c r="R13" s="21">
         <f t="shared" si="15"/>
-        <v>793.30896947200006</v>
+        <v>1005.1846592000002</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="15"/>
-        <v>809.13222913075219</v>
+        <v>1026.1193929471999</v>
       </c>
       <c r="T13" s="21">
         <f t="shared" si="15"/>
-        <v>825.14709383991612</v>
+        <v>1047.3374460183554</v>
       </c>
       <c r="U13" s="21">
         <f t="shared" si="15"/>
-        <v>841.35415620394565</v>
+        <v>1068.840832074329</v>
       </c>
       <c r="V13" s="21">
         <f>U13*(1+$X$16)</f>
-        <v>832.94061464190622</v>
+        <v>1047.4640154328424</v>
       </c>
       <c r="W13" s="21">
         <f t="shared" ref="W13:CH13" si="16">V13*(1+$X$16)</f>
-        <v>824.61120849548718</v>
+        <v>1026.5147351241856</v>
       </c>
       <c r="X13" s="21">
         <f t="shared" si="16"/>
-        <v>816.36509641053226</v>
+        <v>1005.9844404217018</v>
       </c>
       <c r="Y13" s="21">
         <f t="shared" si="16"/>
-        <v>808.20144544642687</v>
+        <v>985.8647516132678</v>
       </c>
       <c r="Z13" s="21">
         <f t="shared" si="16"/>
-        <v>800.11943099196264</v>
+        <v>966.14745658100242</v>
       </c>
       <c r="AA13" s="21">
         <f t="shared" si="16"/>
-        <v>792.11823668204306</v>
+        <v>946.82450744938239</v>
       </c>
       <c r="AB13" s="21">
         <f t="shared" si="16"/>
-        <v>784.19705431522266</v>
+        <v>927.88801730039472</v>
       </c>
       <c r="AC13" s="21">
         <f t="shared" si="16"/>
-        <v>776.35508377207043</v>
+        <v>909.33025695438675</v>
       </c>
       <c r="AD13" s="21">
         <f t="shared" si="16"/>
-        <v>768.59153293434974</v>
+        <v>891.14365181529899</v>
       </c>
       <c r="AE13" s="21">
         <f t="shared" si="16"/>
-        <v>760.90561760500623</v>
+        <v>873.32077877899303</v>
       </c>
       <c r="AF13" s="21">
         <f t="shared" si="16"/>
-        <v>753.29656142895612</v>
+        <v>855.85436320341319</v>
       </c>
       <c r="AG13" s="21">
         <f t="shared" si="16"/>
-        <v>745.76359581466659</v>
+        <v>838.73727593934495</v>
       </c>
       <c r="AH13" s="21">
         <f t="shared" si="16"/>
-        <v>738.30595985651996</v>
+        <v>821.9625304205581</v>
       </c>
       <c r="AI13" s="21">
         <f t="shared" si="16"/>
-        <v>730.92290025795478</v>
+        <v>805.52327981214694</v>
       </c>
       <c r="AJ13" s="21">
         <f t="shared" si="16"/>
-        <v>723.61367125537527</v>
+        <v>789.41281421590395</v>
       </c>
       <c r="AK13" s="21">
         <f t="shared" si="16"/>
-        <v>716.37753454282154</v>
+        <v>773.62455793158585</v>
       </c>
       <c r="AL13" s="21">
         <f t="shared" si="16"/>
-        <v>709.2137591973933</v>
+        <v>758.15206677295407</v>
       </c>
       <c r="AM13" s="21">
         <f t="shared" si="16"/>
-        <v>702.12162160541936</v>
+        <v>742.989025437495</v>
       </c>
       <c r="AN13" s="21">
         <f t="shared" si="16"/>
-        <v>695.10040538936516</v>
+        <v>728.12924492874504</v>
       </c>
       <c r="AO13" s="21">
         <f t="shared" si="16"/>
-        <v>688.14940133547145</v>
+        <v>713.56666003017017</v>
       </c>
       <c r="AP13" s="21">
         <f t="shared" si="16"/>
-        <v>681.26790732211668</v>
+        <v>699.29532682956676</v>
       </c>
       <c r="AQ13" s="21">
         <f t="shared" si="16"/>
-        <v>674.45522824889554</v>
+        <v>685.30942029297546</v>
       </c>
       <c r="AR13" s="21">
         <f t="shared" si="16"/>
-        <v>667.7106759664066</v>
+        <v>671.60323188711595</v>
       </c>
       <c r="AS13" s="21">
         <f t="shared" si="16"/>
-        <v>661.03356920674253</v>
+        <v>658.17116724937364</v>
       </c>
       <c r="AT13" s="21">
         <f t="shared" si="16"/>
-        <v>654.42323351467508</v>
+        <v>645.00774390438619</v>
       </c>
       <c r="AU13" s="21">
         <f t="shared" si="16"/>
-        <v>647.87900117952836</v>
+        <v>632.10758902629846</v>
       </c>
       <c r="AV13" s="21">
         <f t="shared" si="16"/>
-        <v>641.40021116773312</v>
+        <v>619.46543724577248</v>
       </c>
       <c r="AW13" s="21">
         <f t="shared" si="16"/>
-        <v>634.98620905605583</v>
+        <v>607.07612850085707</v>
       </c>
       <c r="AX13" s="21">
         <f t="shared" si="16"/>
-        <v>628.63634696549525</v>
+        <v>594.93460593083989</v>
       </c>
       <c r="AY13" s="21">
         <f t="shared" si="16"/>
-        <v>622.34998349584032</v>
+        <v>583.03591381222304</v>
       </c>
       <c r="AZ13" s="21">
         <f t="shared" si="16"/>
-        <v>616.12648366088195</v>
+        <v>571.37519553597861</v>
       </c>
       <c r="BA13" s="21">
         <f t="shared" si="16"/>
-        <v>609.96521882427317</v>
+        <v>559.94769162525904</v>
       </c>
       <c r="BB13" s="21">
         <f t="shared" si="16"/>
-        <v>603.86556663603039</v>
+        <v>548.7487377927539</v>
       </c>
       <c r="BC13" s="21">
         <f t="shared" si="16"/>
-        <v>597.82691096967005</v>
+        <v>537.7737630368988</v>
       </c>
       <c r="BD13" s="21">
         <f t="shared" si="16"/>
-        <v>591.84864185997333</v>
+        <v>527.01828777616083</v>
       </c>
       <c r="BE13" s="21">
         <f t="shared" si="16"/>
-        <v>585.93015544137359</v>
+        <v>516.47792202063761</v>
       </c>
       <c r="BF13" s="21">
         <f t="shared" si="16"/>
-        <v>580.07085388695987</v>
+        <v>506.14836358022484</v>
       </c>
       <c r="BG13" s="21">
         <f t="shared" si="16"/>
-        <v>574.2701453480903</v>
+        <v>496.02539630862032</v>
       </c>
       <c r="BH13" s="21">
         <f t="shared" si="16"/>
-        <v>568.52744389460941</v>
+        <v>486.10488838244788</v>
       </c>
       <c r="BI13" s="21">
         <f t="shared" si="16"/>
-        <v>562.84216945566334</v>
+        <v>476.38279061479892</v>
       </c>
       <c r="BJ13" s="21">
         <f t="shared" si="16"/>
-        <v>557.21374776110667</v>
+        <v>466.85513480250296</v>
       </c>
       <c r="BK13" s="21">
         <f t="shared" si="16"/>
-        <v>551.64161028349565</v>
+        <v>457.51803210645289</v>
       </c>
       <c r="BL13" s="21">
         <f t="shared" si="16"/>
-        <v>546.12519418066074</v>
+        <v>448.36767146432385</v>
       </c>
       <c r="BM13" s="21">
         <f t="shared" si="16"/>
-        <v>540.66394223885413</v>
+        <v>439.40031803503734</v>
       </c>
       <c r="BN13" s="21">
         <f t="shared" si="16"/>
-        <v>535.25730281646554</v>
+        <v>430.61231167433658</v>
       </c>
       <c r="BO13" s="21">
         <f t="shared" si="16"/>
-        <v>529.90472978830087</v>
+        <v>422.00006544084982</v>
       </c>
       <c r="BP13" s="21">
         <f t="shared" si="16"/>
-        <v>524.60568249041785</v>
+        <v>413.56006413203284</v>
       </c>
       <c r="BQ13" s="21">
         <f t="shared" si="16"/>
-        <v>519.3596256655137</v>
+        <v>405.28886284939216</v>
       </c>
       <c r="BR13" s="21">
         <f t="shared" si="16"/>
-        <v>514.16602940885855</v>
+        <v>397.18308559240432</v>
       </c>
       <c r="BS13" s="21">
         <f t="shared" si="16"/>
-        <v>509.02436911476997</v>
+        <v>389.23942388055622</v>
       </c>
       <c r="BT13" s="21">
         <f t="shared" si="16"/>
-        <v>503.93412542362228</v>
+        <v>381.45463540294509</v>
       </c>
       <c r="BU13" s="21">
         <f t="shared" si="16"/>
-        <v>498.89478416938607</v>
+        <v>373.82554269488617</v>
       </c>
       <c r="BV13" s="21">
         <f t="shared" si="16"/>
-        <v>493.90583632769221</v>
+        <v>366.34903184098846</v>
       </c>
       <c r="BW13" s="21">
         <f t="shared" si="16"/>
-        <v>488.96677796441531</v>
+        <v>359.02205120416869</v>
       </c>
       <c r="BX13" s="21">
         <f t="shared" si="16"/>
-        <v>484.07711018477113</v>
+        <v>351.8416101800853</v>
       </c>
       <c r="BY13" s="21">
         <f t="shared" si="16"/>
-        <v>479.23633908292339</v>
+        <v>344.80477797648359</v>
       </c>
       <c r="BZ13" s="21">
         <f t="shared" si="16"/>
-        <v>474.44397569209417</v>
+        <v>337.90868241695392</v>
       </c>
       <c r="CA13" s="21">
         <f t="shared" si="16"/>
-        <v>469.69953593517323</v>
+        <v>331.15050876861483</v>
       </c>
       <c r="CB13" s="21">
         <f t="shared" si="16"/>
-        <v>465.00254057582151</v>
+        <v>324.52749859324251</v>
       </c>
       <c r="CC13" s="21">
         <f t="shared" si="16"/>
-        <v>460.35251517006327</v>
+        <v>318.03694862137763</v>
       </c>
       <c r="CD13" s="21">
         <f t="shared" si="16"/>
-        <v>455.74899001836263</v>
+        <v>311.67620964895008</v>
       </c>
       <c r="CE13" s="21">
         <f t="shared" si="16"/>
-        <v>451.19150011817902</v>
+        <v>305.44268545597106</v>
       </c>
       <c r="CF13" s="21">
         <f t="shared" si="16"/>
-        <v>446.6795851169972</v>
+        <v>299.33383174685162</v>
       </c>
       <c r="CG13" s="21">
         <f t="shared" si="16"/>
-        <v>442.21278926582721</v>
+        <v>293.34715511191456</v>
       </c>
       <c r="CH13" s="21">
         <f t="shared" si="16"/>
-        <v>437.79066137316892</v>
+        <v>287.48021200967628</v>
       </c>
       <c r="CI13" s="21">
         <f t="shared" ref="CI13:DI13" si="17">CH13*(1+$X$16)</f>
-        <v>433.41275475943723</v>
+        <v>281.73060776948273</v>
       </c>
       <c r="CJ13" s="21">
         <f t="shared" si="17"/>
-        <v>429.07862721184284</v>
+        <v>276.09599561409306</v>
       </c>
       <c r="CK13" s="21">
         <f t="shared" si="17"/>
-        <v>424.78784093972439</v>
+        <v>270.57407570181118</v>
       </c>
       <c r="CL13" s="21">
         <f t="shared" si="17"/>
-        <v>420.53996253032716</v>
+        <v>265.16259418777497</v>
       </c>
       <c r="CM13" s="21">
         <f t="shared" si="17"/>
-        <v>416.33456290502386</v>
+        <v>259.85934230401949</v>
       </c>
       <c r="CN13" s="21">
         <f t="shared" si="17"/>
-        <v>412.17121727597362</v>
+        <v>254.66215545793909</v>
       </c>
       <c r="CO13" s="21">
         <f t="shared" si="17"/>
-        <v>408.0495051032139</v>
+        <v>249.56891234878032</v>
       </c>
       <c r="CP13" s="21">
         <f t="shared" si="17"/>
-        <v>403.96901005218177</v>
+        <v>244.5775341018047</v>
       </c>
       <c r="CQ13" s="21">
         <f t="shared" si="17"/>
-        <v>399.92931995165998</v>
+        <v>239.6859834197686</v>
       </c>
       <c r="CR13" s="21">
         <f t="shared" si="17"/>
-        <v>395.93002675214336</v>
+        <v>234.89226375137324</v>
       </c>
       <c r="CS13" s="21">
         <f t="shared" si="17"/>
-        <v>391.97072648462193</v>
+        <v>230.19441847634576</v>
       </c>
       <c r="CT13" s="21">
         <f t="shared" si="17"/>
-        <v>388.0510192197757</v>
+        <v>225.59053010681885</v>
       </c>
       <c r="CU13" s="21">
         <f t="shared" si="17"/>
-        <v>384.17050902757796</v>
+        <v>221.07871950468245</v>
       </c>
       <c r="CV13" s="21">
         <f t="shared" si="17"/>
-        <v>380.32880393730215</v>
+        <v>216.65714511458881</v>
       </c>
       <c r="CW13" s="21">
         <f t="shared" si="17"/>
-        <v>376.52551589792915</v>
+        <v>212.32400221229705</v>
       </c>
       <c r="CX13" s="21">
         <f t="shared" si="17"/>
-        <v>372.76026073894985</v>
+        <v>208.0775221680511</v>
       </c>
       <c r="CY13" s="21">
         <f t="shared" si="17"/>
-        <v>369.03265813156037</v>
+        <v>203.91597172469008</v>
       </c>
       <c r="CZ13" s="21">
         <f t="shared" si="17"/>
-        <v>365.34233155024475</v>
+        <v>199.83765229019627</v>
       </c>
       <c r="DA13" s="21">
         <f t="shared" si="17"/>
-        <v>361.68890823474231</v>
+        <v>195.84089924439235</v>
       </c>
       <c r="DB13" s="21">
         <f t="shared" si="17"/>
-        <v>358.07201915239489</v>
+        <v>191.9240812595045</v>
       </c>
       <c r="DC13" s="21">
         <f t="shared" si="17"/>
-        <v>354.49129896087095</v>
+        <v>188.08559963431441</v>
       </c>
       <c r="DD13" s="21">
         <f t="shared" si="17"/>
-        <v>350.94638597126226</v>
+        <v>184.32388764162812</v>
       </c>
       <c r="DE13" s="21">
         <f t="shared" si="17"/>
-        <v>347.43692211154962</v>
+        <v>180.63740988879556</v>
       </c>
       <c r="DF13" s="21">
         <f t="shared" si="17"/>
-        <v>343.9625528904341</v>
+        <v>177.02466169101965</v>
       </c>
       <c r="DG13" s="21">
         <f t="shared" si="17"/>
-        <v>340.52292736152975</v>
+        <v>173.48416845719925</v>
       </c>
       <c r="DH13" s="21">
         <f t="shared" si="17"/>
-        <v>337.11769808791445</v>
+        <v>170.01448508805527</v>
       </c>
       <c r="DI13" s="21">
         <f t="shared" si="17"/>
-        <v>333.74652110703528</v>
+        <v>166.61419538629417</v>
       </c>
     </row>
     <row r="14" spans="1:113" x14ac:dyDescent="0.2">
@@ -2121,23 +2123,23 @@
       </c>
       <c r="Q15" s="20">
         <f t="shared" ref="Q15" si="20">Q13/Q14</f>
-        <v>8.1774623764458489</v>
+        <v>10.352588853838066</v>
       </c>
       <c r="R15" s="20">
         <f t="shared" ref="R15" si="21">R13/R14</f>
-        <v>8.3418398472344908</v>
+        <v>10.569765080967406</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" ref="S15" si="22">S13/S14</f>
-        <v>8.5082253326051767</v>
+        <v>10.789898979465825</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" ref="T15" si="23">T13/T14</f>
-        <v>8.6766255924281399</v>
+        <v>11.013012050666198</v>
       </c>
       <c r="U15" s="20">
         <f t="shared" ref="U15" si="24">U13/U14</f>
-        <v>8.8470468580856547</v>
+        <v>11.239125468710085</v>
       </c>
       <c r="W15" s="21" t="s">
         <v>53</v>
@@ -2151,7 +2153,7 @@
         <v>54</v>
       </c>
       <c r="X16" s="26">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -2169,7 +2171,7 @@
       </c>
       <c r="Q17" s="25">
         <f t="shared" ref="Q17:U17" si="25">Q3/P3-1</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.2092661331875203</v>
       </c>
       <c r="R17" s="25">
         <f t="shared" si="25"/>
@@ -2187,7 +2189,7 @@
         <f t="shared" si="25"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="W17" s="27" t="s">
+      <c r="W17" s="21" t="s">
         <v>55</v>
       </c>
       <c r="X17" s="26">
@@ -2270,7 +2272,7 @@
       </c>
       <c r="X18" s="21">
         <f>NPV(X17,Q13:XFD13)+Main!K5-Main!K6</f>
-        <v>8323.8042332358727</v>
+        <v>10018.681885765032</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2298,7 +2300,7 @@
       </c>
       <c r="Q19" s="26">
         <f t="shared" ref="Q19:U19" si="28">Q7/P7-1</f>
-        <v>2.0000000000000018E-2</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R19" s="26">
         <f t="shared" si="28"/>
@@ -2321,13 +2323,13 @@
       </c>
       <c r="X19" s="20">
         <f>X18/Main!K3</f>
-        <v>84.697378158021436</v>
+        <v>101.94330195025319</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="X20" s="26">
         <f>X19/Main!K2-1</f>
-        <v>4.2935861348763398</v>
+        <v>5.3714563718908241</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2340,23 +2342,23 @@
       </c>
       <c r="Q21" s="21">
         <f>P21+Q13</f>
-        <v>995.37667200000021</v>
+        <v>1202.2312000000002</v>
       </c>
       <c r="R21" s="21">
         <f t="shared" ref="R21:U21" si="29">Q21+R13</f>
-        <v>1788.6856414720003</v>
+        <v>2207.4158592000003</v>
       </c>
       <c r="S21" s="21">
         <f t="shared" si="29"/>
-        <v>2597.8178706027525</v>
+        <v>3233.5352521472005</v>
       </c>
       <c r="T21" s="21">
         <f t="shared" si="29"/>
-        <v>3422.9649644426686</v>
+        <v>4280.8726981655564</v>
       </c>
       <c r="U21" s="21">
         <f t="shared" si="29"/>
-        <v>4264.3191206466145</v>
+        <v>5349.7135302398856</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2555,7 +2557,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2597,7 +2599,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C1"/>
@@ -2633,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A26E37D-39D8-4DCA-A95F-E6EADC0FC071}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2645,7 +2647,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2697,22 +2699,22 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2730,7 +2732,7 @@
         <v>2026</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:P22" si="0">D22+1</f>
+        <f t="shared" ref="E22:L22" si="0">D22+1</f>
         <v>2027</v>
       </c>
       <c r="F22">
@@ -2775,7 +2777,7 @@
         <v>12120</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" ref="E23:P23" si="1">D23*1.01</f>
+        <f t="shared" ref="E23:L23" si="1">D23*1.01</f>
         <v>12241.2</v>
       </c>
       <c r="F23" s="21">
@@ -2820,7 +2822,7 @@
         <v>240</v>
       </c>
       <c r="D24" s="21">
-        <f t="shared" ref="D24:P24" si="2">D23*0.02</f>
+        <f t="shared" ref="D24:L24" si="2">D23*0.02</f>
         <v>242.4</v>
       </c>
       <c r="E24" s="21">
@@ -2908,7 +2910,7 @@
         <v>768</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" ref="D26:P26" si="3">D25*D24/1000000</f>
+        <f t="shared" ref="D26:L26" si="3">D25*D24/1000000</f>
         <v>775.68</v>
       </c>
       <c r="E26" s="21">
@@ -2960,7 +2962,7 @@
       <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="29">
         <f>NPV(C28,C26:XFD26)</f>
         <v>5357.8557225903514</v>
       </c>

--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15034A8-8CA7-498C-B1BA-F8625F58B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDE849C-7F0A-4011-93CC-19661204257A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="480" windowWidth="20850" windowHeight="14790" activeTab="1" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
+    <workbookView xWindow="4740" yWindow="330" windowWidth="21750" windowHeight="15015" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3649CA3D-BD6D-4E02-8579-6A8963C974F1}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1147,6 +1147,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="15"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -1189,11 +1190,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1A893-8ADE-4729-B205-F45738EE77EA}">
   <dimension ref="A1:DI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1335,23 +1336,23 @@
       </c>
       <c r="Q4" s="21">
         <f>Q3*(1-Q18)</f>
-        <v>459.99999999999989</v>
+        <v>345.00000000000006</v>
       </c>
       <c r="R4" s="21">
         <f t="shared" ref="R4:U4" si="2">R3*(1-R18)</f>
-        <v>464.59999999999991</v>
+        <v>348.45000000000005</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="2"/>
-        <v>469.24599999999992</v>
+        <v>351.93450000000007</v>
       </c>
       <c r="T4" s="21">
         <f t="shared" si="2"/>
-        <v>473.93845999999991</v>
+        <v>355.45384500000006</v>
       </c>
       <c r="U4" s="21">
         <f t="shared" si="2"/>
-        <v>478.6778445999999</v>
+        <v>359.00838345000005</v>
       </c>
     </row>
     <row r="5" spans="1:113" x14ac:dyDescent="0.2">
@@ -1380,23 +1381,23 @@
       </c>
       <c r="Q5" s="21">
         <f t="shared" ref="Q5" si="4">Q3-Q4</f>
-        <v>1840</v>
+        <v>1955</v>
       </c>
       <c r="R5" s="21">
         <f t="shared" ref="R5" si="5">R3-R4</f>
-        <v>1858.4</v>
+        <v>1974.55</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" ref="S5" si="6">S3-S4</f>
-        <v>1876.9840000000002</v>
+        <v>1994.2954999999999</v>
       </c>
       <c r="T5" s="21">
         <f t="shared" ref="T5" si="7">T3-T4</f>
-        <v>1895.7538400000003</v>
+        <v>2014.2384550000002</v>
       </c>
       <c r="U5" s="21">
         <f t="shared" ref="U5" si="8">U3-U4</f>
-        <v>1914.7113784000003</v>
+        <v>2034.38083955</v>
       </c>
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.2">
@@ -1518,23 +1519,23 @@
       </c>
       <c r="Q9" s="21">
         <f t="shared" si="11"/>
-        <v>1226.31</v>
+        <v>1341.31</v>
       </c>
       <c r="R9" s="21">
         <f t="shared" si="11"/>
-        <v>1232.4362000000001</v>
+        <v>1348.5861999999997</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="11"/>
-        <v>1238.5009239999999</v>
+        <v>1355.8124239999997</v>
       </c>
       <c r="T9" s="21">
         <f t="shared" si="11"/>
-        <v>1244.5011024800001</v>
+        <v>1362.9857174799999</v>
       </c>
       <c r="U9" s="21">
         <f t="shared" si="11"/>
-        <v>1250.4335861296001</v>
+        <v>1370.1030472795999</v>
       </c>
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.2">
@@ -1556,19 +1557,19 @@
       </c>
       <c r="R10" s="21">
         <f t="shared" ref="R10:U10" si="12">Q21*$X$15</f>
-        <v>24.044624000000002</v>
+        <v>25.884623999999999</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="12"/>
-        <v>44.148317184000007</v>
+        <v>47.876157183999993</v>
       </c>
       <c r="T10" s="21">
         <f t="shared" si="12"/>
-        <v>64.670705042944007</v>
+        <v>70.335174482943984</v>
       </c>
       <c r="U10" s="21">
         <f t="shared" si="12"/>
-        <v>85.617453963311135</v>
+        <v>93.268308754351096</v>
       </c>
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.2">
@@ -1597,23 +1598,23 @@
       </c>
       <c r="Q11" s="21">
         <f t="shared" si="13"/>
-        <v>1230.664</v>
+        <v>1345.664</v>
       </c>
       <c r="R11" s="21">
         <f t="shared" si="13"/>
-        <v>1256.4808240000002</v>
+        <v>1374.4708239999998</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="13"/>
-        <v>1282.6492411839999</v>
+        <v>1403.6885811839998</v>
       </c>
       <c r="T11" s="21">
         <f t="shared" si="13"/>
-        <v>1309.1718075229442</v>
+        <v>1433.320891962944</v>
       </c>
       <c r="U11" s="21">
         <f t="shared" si="13"/>
-        <v>1336.0510400929113</v>
+        <v>1463.3713560339511</v>
       </c>
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.2">
@@ -1631,23 +1632,23 @@
       </c>
       <c r="Q12" s="21">
         <f>Q11*0.2</f>
-        <v>246.1328</v>
+        <v>269.13280000000003</v>
       </c>
       <c r="R12" s="21">
         <f t="shared" ref="R12:U12" si="14">R11*0.2</f>
-        <v>251.29616480000004</v>
+        <v>274.89416479999994</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="14"/>
-        <v>256.52984823679998</v>
+        <v>280.73771623679994</v>
       </c>
       <c r="T12" s="21">
         <f t="shared" si="14"/>
-        <v>261.83436150458886</v>
+        <v>286.66417839258878</v>
       </c>
       <c r="U12" s="21">
         <f t="shared" si="14"/>
-        <v>267.21020801858225</v>
+        <v>292.67427120679025</v>
       </c>
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.2">
@@ -1676,391 +1677,391 @@
       </c>
       <c r="Q13" s="21">
         <f t="shared" si="15"/>
-        <v>984.53120000000001</v>
+        <v>1076.5311999999999</v>
       </c>
       <c r="R13" s="21">
         <f t="shared" si="15"/>
-        <v>1005.1846592000002</v>
+        <v>1099.5766591999998</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="15"/>
-        <v>1026.1193929471999</v>
+        <v>1122.9508649471998</v>
       </c>
       <c r="T13" s="21">
         <f t="shared" si="15"/>
-        <v>1047.3374460183554</v>
+        <v>1146.6567135703551</v>
       </c>
       <c r="U13" s="21">
         <f t="shared" si="15"/>
-        <v>1068.840832074329</v>
+        <v>1170.6970848271608</v>
       </c>
       <c r="V13" s="21">
         <f>U13*(1+$X$16)</f>
-        <v>1047.4640154328424</v>
+        <v>1135.5761722823459</v>
       </c>
       <c r="W13" s="21">
         <f t="shared" ref="W13:CH13" si="16">V13*(1+$X$16)</f>
-        <v>1026.5147351241856</v>
+        <v>1101.5088871138755</v>
       </c>
       <c r="X13" s="21">
         <f t="shared" si="16"/>
-        <v>1005.9844404217018</v>
+        <v>1068.4636205004592</v>
       </c>
       <c r="Y13" s="21">
         <f t="shared" si="16"/>
-        <v>985.8647516132678</v>
+        <v>1036.4097118854454</v>
       </c>
       <c r="Z13" s="21">
         <f t="shared" si="16"/>
-        <v>966.14745658100242</v>
+        <v>1005.3174205288821</v>
       </c>
       <c r="AA13" s="21">
         <f t="shared" si="16"/>
-        <v>946.82450744938239</v>
+        <v>975.15789791301552</v>
       </c>
       <c r="AB13" s="21">
         <f t="shared" si="16"/>
-        <v>927.88801730039472</v>
+        <v>945.90316097562504</v>
       </c>
       <c r="AC13" s="21">
         <f t="shared" si="16"/>
-        <v>909.33025695438675</v>
+        <v>917.52606614635624</v>
       </c>
       <c r="AD13" s="21">
         <f t="shared" si="16"/>
-        <v>891.14365181529899</v>
+        <v>890.00028416196551</v>
       </c>
       <c r="AE13" s="21">
         <f t="shared" si="16"/>
-        <v>873.32077877899303</v>
+        <v>863.30027563710655</v>
       </c>
       <c r="AF13" s="21">
         <f t="shared" si="16"/>
-        <v>855.85436320341319</v>
+        <v>837.40126736799334</v>
       </c>
       <c r="AG13" s="21">
         <f t="shared" si="16"/>
-        <v>838.73727593934495</v>
+        <v>812.27922934695357</v>
       </c>
       <c r="AH13" s="21">
         <f t="shared" si="16"/>
-        <v>821.9625304205581</v>
+        <v>787.91085246654495</v>
       </c>
       <c r="AI13" s="21">
         <f t="shared" si="16"/>
-        <v>805.52327981214694</v>
+        <v>764.2735268925486</v>
       </c>
       <c r="AJ13" s="21">
         <f t="shared" si="16"/>
-        <v>789.41281421590395</v>
+        <v>741.34532108577207</v>
       </c>
       <c r="AK13" s="21">
         <f t="shared" si="16"/>
-        <v>773.62455793158585</v>
+        <v>719.10496145319894</v>
       </c>
       <c r="AL13" s="21">
         <f t="shared" si="16"/>
-        <v>758.15206677295407</v>
+        <v>697.53181260960298</v>
       </c>
       <c r="AM13" s="21">
         <f t="shared" si="16"/>
-        <v>742.989025437495</v>
+        <v>676.60585823131487</v>
       </c>
       <c r="AN13" s="21">
         <f t="shared" si="16"/>
-        <v>728.12924492874504</v>
+        <v>656.30768248437539</v>
       </c>
       <c r="AO13" s="21">
         <f t="shared" si="16"/>
-        <v>713.56666003017017</v>
+        <v>636.61845200984408</v>
       </c>
       <c r="AP13" s="21">
         <f t="shared" si="16"/>
-        <v>699.29532682956676</v>
+        <v>617.51989844954869</v>
       </c>
       <c r="AQ13" s="21">
         <f t="shared" si="16"/>
-        <v>685.30942029297546</v>
+        <v>598.99430149606223</v>
       </c>
       <c r="AR13" s="21">
         <f t="shared" si="16"/>
-        <v>671.60323188711595</v>
+        <v>581.02447245118037</v>
       </c>
       <c r="AS13" s="21">
         <f t="shared" si="16"/>
-        <v>658.17116724937364</v>
+        <v>563.593738277645</v>
       </c>
       <c r="AT13" s="21">
         <f t="shared" si="16"/>
-        <v>645.00774390438619</v>
+        <v>546.68592612931559</v>
       </c>
       <c r="AU13" s="21">
         <f t="shared" si="16"/>
-        <v>632.10758902629846</v>
+        <v>530.28534834543609</v>
       </c>
       <c r="AV13" s="21">
         <f t="shared" si="16"/>
-        <v>619.46543724577248</v>
+        <v>514.37678789507299</v>
       </c>
       <c r="AW13" s="21">
         <f t="shared" si="16"/>
-        <v>607.07612850085707</v>
+        <v>498.9454842582208</v>
       </c>
       <c r="AX13" s="21">
         <f t="shared" si="16"/>
-        <v>594.93460593083989</v>
+        <v>483.97711973047416</v>
       </c>
       <c r="AY13" s="21">
         <f t="shared" si="16"/>
-        <v>583.03591381222304</v>
+        <v>469.45780613855993</v>
       </c>
       <c r="AZ13" s="21">
         <f t="shared" si="16"/>
-        <v>571.37519553597861</v>
+        <v>455.37407195440312</v>
       </c>
       <c r="BA13" s="21">
         <f t="shared" si="16"/>
-        <v>559.94769162525904</v>
+        <v>441.71284979577104</v>
       </c>
       <c r="BB13" s="21">
         <f t="shared" si="16"/>
-        <v>548.7487377927539</v>
+        <v>428.46146430189788</v>
       </c>
       <c r="BC13" s="21">
         <f t="shared" si="16"/>
-        <v>537.7737630368988</v>
+        <v>415.60762037284093</v>
       </c>
       <c r="BD13" s="21">
         <f t="shared" si="16"/>
-        <v>527.01828777616083</v>
+        <v>403.1393917616557</v>
       </c>
       <c r="BE13" s="21">
         <f t="shared" si="16"/>
-        <v>516.47792202063761</v>
+        <v>391.04521000880601</v>
       </c>
       <c r="BF13" s="21">
         <f t="shared" si="16"/>
-        <v>506.14836358022484</v>
+        <v>379.31385370854184</v>
       </c>
       <c r="BG13" s="21">
         <f t="shared" si="16"/>
-        <v>496.02539630862032</v>
+        <v>367.93443809728558</v>
       </c>
       <c r="BH13" s="21">
         <f t="shared" si="16"/>
-        <v>486.10488838244788</v>
+        <v>356.89640495436703</v>
       </c>
       <c r="BI13" s="21">
         <f t="shared" si="16"/>
-        <v>476.38279061479892</v>
+        <v>346.189512805736</v>
       </c>
       <c r="BJ13" s="21">
         <f t="shared" si="16"/>
-        <v>466.85513480250296</v>
+        <v>335.80382742156394</v>
       </c>
       <c r="BK13" s="21">
         <f t="shared" si="16"/>
-        <v>457.51803210645289</v>
+        <v>325.72971259891699</v>
       </c>
       <c r="BL13" s="21">
         <f t="shared" si="16"/>
-        <v>448.36767146432385</v>
+        <v>315.95782122094948</v>
       </c>
       <c r="BM13" s="21">
         <f t="shared" si="16"/>
-        <v>439.40031803503734</v>
+        <v>306.47908658432101</v>
       </c>
       <c r="BN13" s="21">
         <f t="shared" si="16"/>
-        <v>430.61231167433658</v>
+        <v>297.28471398679136</v>
       </c>
       <c r="BO13" s="21">
         <f t="shared" si="16"/>
-        <v>422.00006544084982</v>
+        <v>288.36617256718762</v>
       </c>
       <c r="BP13" s="21">
         <f t="shared" si="16"/>
-        <v>413.56006413203284</v>
+        <v>279.71518739017199</v>
       </c>
       <c r="BQ13" s="21">
         <f t="shared" si="16"/>
-        <v>405.28886284939216</v>
+        <v>271.32373176846681</v>
       </c>
       <c r="BR13" s="21">
         <f t="shared" si="16"/>
-        <v>397.18308559240432</v>
+        <v>263.1840198154128</v>
       </c>
       <c r="BS13" s="21">
         <f t="shared" si="16"/>
-        <v>389.23942388055622</v>
+        <v>255.2884992209504</v>
       </c>
       <c r="BT13" s="21">
         <f t="shared" si="16"/>
-        <v>381.45463540294509</v>
+        <v>247.62984424432187</v>
       </c>
       <c r="BU13" s="21">
         <f t="shared" si="16"/>
-        <v>373.82554269488617</v>
+        <v>240.20094891699222</v>
       </c>
       <c r="BV13" s="21">
         <f t="shared" si="16"/>
-        <v>366.34903184098846</v>
+        <v>232.99492044948244</v>
       </c>
       <c r="BW13" s="21">
         <f t="shared" si="16"/>
-        <v>359.02205120416869</v>
+        <v>226.00507283599796</v>
       </c>
       <c r="BX13" s="21">
         <f t="shared" si="16"/>
-        <v>351.8416101800853</v>
+        <v>219.22492065091802</v>
       </c>
       <c r="BY13" s="21">
         <f t="shared" si="16"/>
-        <v>344.80477797648359</v>
+        <v>212.64817303139048</v>
       </c>
       <c r="BZ13" s="21">
         <f t="shared" si="16"/>
-        <v>337.90868241695392</v>
+        <v>206.26872784044878</v>
       </c>
       <c r="CA13" s="21">
         <f t="shared" si="16"/>
-        <v>331.15050876861483</v>
+        <v>200.08066600523532</v>
       </c>
       <c r="CB13" s="21">
         <f t="shared" si="16"/>
-        <v>324.52749859324251</v>
+        <v>194.07824602507824</v>
       </c>
       <c r="CC13" s="21">
         <f t="shared" si="16"/>
-        <v>318.03694862137763</v>
+        <v>188.2558986443259</v>
       </c>
       <c r="CD13" s="21">
         <f t="shared" si="16"/>
-        <v>311.67620964895008</v>
+        <v>182.60822168499612</v>
       </c>
       <c r="CE13" s="21">
         <f t="shared" si="16"/>
-        <v>305.44268545597106</v>
+        <v>177.12997503444623</v>
       </c>
       <c r="CF13" s="21">
         <f t="shared" si="16"/>
-        <v>299.33383174685162</v>
+        <v>171.81607578341283</v>
       </c>
       <c r="CG13" s="21">
         <f t="shared" si="16"/>
-        <v>293.34715511191456</v>
+        <v>166.66159350991043</v>
       </c>
       <c r="CH13" s="21">
         <f t="shared" si="16"/>
-        <v>287.48021200967628</v>
+        <v>161.66174570461311</v>
       </c>
       <c r="CI13" s="21">
         <f t="shared" ref="CI13:DI13" si="17">CH13*(1+$X$16)</f>
-        <v>281.73060776948273</v>
+        <v>156.8118933334747</v>
       </c>
       <c r="CJ13" s="21">
         <f t="shared" si="17"/>
-        <v>276.09599561409306</v>
+        <v>152.10753653347047</v>
       </c>
       <c r="CK13" s="21">
         <f t="shared" si="17"/>
-        <v>270.57407570181118</v>
+        <v>147.54431043746635</v>
       </c>
       <c r="CL13" s="21">
         <f t="shared" si="17"/>
-        <v>265.16259418777497</v>
+        <v>143.11798112434235</v>
       </c>
       <c r="CM13" s="21">
         <f t="shared" si="17"/>
-        <v>259.85934230401949</v>
+        <v>138.82444169061208</v>
       </c>
       <c r="CN13" s="21">
         <f t="shared" si="17"/>
-        <v>254.66215545793909</v>
+        <v>134.65970843989371</v>
       </c>
       <c r="CO13" s="21">
         <f t="shared" si="17"/>
-        <v>249.56891234878032</v>
+        <v>130.61991718669688</v>
       </c>
       <c r="CP13" s="21">
         <f t="shared" si="17"/>
-        <v>244.5775341018047</v>
+        <v>126.70131967109597</v>
       </c>
       <c r="CQ13" s="21">
         <f t="shared" si="17"/>
-        <v>239.6859834197686</v>
+        <v>122.90028008096309</v>
       </c>
       <c r="CR13" s="21">
         <f t="shared" si="17"/>
-        <v>234.89226375137324</v>
+        <v>119.21327167853418</v>
       </c>
       <c r="CS13" s="21">
         <f t="shared" si="17"/>
-        <v>230.19441847634576</v>
+        <v>115.63687352817816</v>
       </c>
       <c r="CT13" s="21">
         <f t="shared" si="17"/>
-        <v>225.59053010681885</v>
+        <v>112.16776732233281</v>
       </c>
       <c r="CU13" s="21">
         <f t="shared" si="17"/>
-        <v>221.07871950468245</v>
+        <v>108.80273430266281</v>
       </c>
       <c r="CV13" s="21">
         <f t="shared" si="17"/>
-        <v>216.65714511458881</v>
+        <v>105.53865227358293</v>
       </c>
       <c r="CW13" s="21">
         <f t="shared" si="17"/>
-        <v>212.32400221229705</v>
+        <v>102.37249270537544</v>
       </c>
       <c r="CX13" s="21">
         <f t="shared" si="17"/>
-        <v>208.0775221680511</v>
+        <v>99.301317924214175</v>
       </c>
       <c r="CY13" s="21">
         <f t="shared" si="17"/>
-        <v>203.91597172469008</v>
+        <v>96.322278386487753</v>
       </c>
       <c r="CZ13" s="21">
         <f t="shared" si="17"/>
-        <v>199.83765229019627</v>
+        <v>93.432610034893116</v>
       </c>
       <c r="DA13" s="21">
         <f t="shared" si="17"/>
-        <v>195.84089924439235</v>
+        <v>90.629631733846324</v>
       </c>
       <c r="DB13" s="21">
         <f t="shared" si="17"/>
-        <v>191.9240812595045</v>
+        <v>87.910742781830933</v>
       </c>
       <c r="DC13" s="21">
         <f t="shared" si="17"/>
-        <v>188.08559963431441</v>
+        <v>85.273420498375998</v>
       </c>
       <c r="DD13" s="21">
         <f t="shared" si="17"/>
-        <v>184.32388764162812</v>
+        <v>82.715217883424714</v>
       </c>
       <c r="DE13" s="21">
         <f t="shared" si="17"/>
-        <v>180.63740988879556</v>
+        <v>80.233761346921966</v>
       </c>
       <c r="DF13" s="21">
         <f t="shared" si="17"/>
-        <v>177.02466169101965</v>
+        <v>77.826748506514306</v>
       </c>
       <c r="DG13" s="21">
         <f t="shared" si="17"/>
-        <v>173.48416845719925</v>
+        <v>75.491946051318877</v>
       </c>
       <c r="DH13" s="21">
         <f t="shared" si="17"/>
-        <v>170.01448508805527</v>
+        <v>73.227187669779312</v>
       </c>
       <c r="DI13" s="21">
         <f t="shared" si="17"/>
-        <v>166.61419538629417</v>
+        <v>71.030372039685929</v>
       </c>
     </row>
     <row r="14" spans="1:113" x14ac:dyDescent="0.2">
@@ -2123,23 +2124,23 @@
       </c>
       <c r="Q15" s="20">
         <f t="shared" ref="Q15" si="20">Q13/Q14</f>
-        <v>10.352588853838066</v>
+        <v>11.319991587802313</v>
       </c>
       <c r="R15" s="20">
         <f t="shared" ref="R15" si="21">R13/R14</f>
-        <v>10.569765080967406</v>
+        <v>11.562320286014719</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" ref="S15" si="22">S13/S14</f>
-        <v>10.789898979465825</v>
+        <v>11.808105835406938</v>
       </c>
       <c r="T15" s="20">
         <f t="shared" ref="T15" si="23">T13/T14</f>
-        <v>11.013012050666198</v>
+        <v>12.057378691591538</v>
       </c>
       <c r="U15" s="20">
         <f t="shared" ref="U15" si="24">U13/U14</f>
-        <v>11.239125468710085</v>
+        <v>12.310169135932291</v>
       </c>
       <c r="W15" s="21" t="s">
         <v>53</v>
@@ -2153,7 +2154,7 @@
         <v>54</v>
       </c>
       <c r="X16" s="26">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -2193,7 +2194,7 @@
         <v>55</v>
       </c>
       <c r="X17" s="26">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2253,26 +2254,26 @@
         <v>0.83222746821733151</v>
       </c>
       <c r="Q18" s="26">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="R18" s="26">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="S18" s="26">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="T18" s="26">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="U18" s="26">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>56</v>
       </c>
       <c r="X18" s="21">
         <f>NPV(X17,Q13:XFD13)+Main!K5-Main!K6</f>
-        <v>10018.681885765032</v>
+        <v>9309.2462054242424</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2323,13 +2324,13 @@
       </c>
       <c r="X19" s="20">
         <f>X18/Main!K3</f>
-        <v>101.94330195025319</v>
+        <v>94.724566332145287</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="X20" s="26">
         <f>X19/Main!K2-1</f>
-        <v>5.3714563718908241</v>
+        <v>4.9202853957590804</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2342,23 +2343,23 @@
       </c>
       <c r="Q21" s="21">
         <f>P21+Q13</f>
-        <v>1202.2312000000002</v>
+        <v>1294.2311999999999</v>
       </c>
       <c r="R21" s="21">
         <f t="shared" ref="R21:U21" si="29">Q21+R13</f>
-        <v>2207.4158592000003</v>
+        <v>2393.8078591999997</v>
       </c>
       <c r="S21" s="21">
         <f t="shared" si="29"/>
-        <v>3233.5352521472005</v>
+        <v>3516.7587241471992</v>
       </c>
       <c r="T21" s="21">
         <f t="shared" si="29"/>
-        <v>4280.8726981655564</v>
+        <v>4663.4154377175546</v>
       </c>
       <c r="U21" s="21">
         <f t="shared" si="29"/>
-        <v>5349.7135302398856</v>
+        <v>5834.1125225447158</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -2636,7 +2637,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2906,44 +2907,44 @@
         <v>28</v>
       </c>
       <c r="C26" s="21">
-        <f>C25*C24/1000000</f>
-        <v>768</v>
+        <f>C25*C24/1000000*0.85</f>
+        <v>652.79999999999995</v>
       </c>
       <c r="D26" s="21">
-        <f t="shared" ref="D26:L26" si="3">D25*D24/1000000</f>
-        <v>775.68</v>
+        <f t="shared" ref="D26:L26" si="3">D25*D24/1000000*0.85</f>
+        <v>659.32799999999997</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="3"/>
-        <v>783.43679999999995</v>
+        <v>665.92127999999991</v>
       </c>
       <c r="F26" s="21">
         <f t="shared" si="3"/>
-        <v>791.2711680000001</v>
+        <v>672.58049280000012</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" si="3"/>
-        <v>799.18387968000013</v>
+        <v>679.30629772800012</v>
       </c>
       <c r="H26" s="21">
         <f t="shared" si="3"/>
-        <v>807.17571847680017</v>
+        <v>686.09936070528011</v>
       </c>
       <c r="I26" s="21">
         <f t="shared" si="3"/>
-        <v>815.24747566156816</v>
+        <v>692.96035431233292</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="3"/>
-        <v>823.39995041818383</v>
+        <v>699.88995785545626</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="3"/>
-        <v>831.63394992236556</v>
+        <v>706.88885743401067</v>
       </c>
       <c r="L26" s="21">
         <f t="shared" si="3"/>
-        <v>839.95028942158933</v>
+        <v>713.95774600835091</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -2964,7 +2965,7 @@
       </c>
       <c r="C29" s="29">
         <f>NPV(C28,C26:XFD26)</f>
-        <v>5357.8557225903514</v>
+        <v>4554.177364201797</v>
       </c>
     </row>
   </sheetData>

--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDE849C-7F0A-4011-93CC-19661204257A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CBC325-D6CC-4A3E-82E6-653046984120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="330" windowWidth="21750" windowHeight="15015" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
+    <workbookView xWindow="4410" yWindow="270" windowWidth="20805" windowHeight="15015" activeTab="4" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="IP" sheetId="5" r:id="rId3"/>
     <sheet name="Literature" sheetId="4" r:id="rId4"/>
     <sheet name="elevidys" sheetId="3" r:id="rId5"/>
+    <sheet name="exondys" sheetId="6" r:id="rId6"/>
+    <sheet name="vyondys" sheetId="7" r:id="rId7"/>
+    <sheet name="amondys" sheetId="8" r:id="rId8"/>
+    <sheet name="SRP-9003" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +43,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CEB24C3D-CDB8-489E-9110-E6019D26EA47}</author>
+  </authors>
+  <commentList>
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{CEB24C3D-CDB8-489E-9110-E6019D26EA47}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    guidance</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="127">
   <si>
     <t>Price</t>
   </si>
@@ -294,9 +316,6 @@
     <t>Treated</t>
   </si>
   <si>
-    <t>Ambulatory vs Non-Ambulatory</t>
-  </si>
-  <si>
     <t>Elevidys, SRP-9001</t>
   </si>
   <si>
@@ -328,13 +347,109 @@
   </si>
   <si>
     <t>Phase I/II "" in DMD n= NCT:NCT03769116</t>
+  </si>
+  <si>
+    <t>CEO: Douglas S. Ingram</t>
+  </si>
+  <si>
+    <t>COO: Ian M. Estepan</t>
+  </si>
+  <si>
+    <t>CCO: Patrick E. Moss, Pharm.D.</t>
+  </si>
+  <si>
+    <t>R&amp;D: Louise R. Rodino-Klapac, Ph.D.</t>
+  </si>
+  <si>
+    <t>CFO: Ryan H. Wong</t>
+  </si>
+  <si>
+    <t>Richard Barry - Part of Board of Directors</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>Approved 2019</t>
+  </si>
+  <si>
+    <t>Approved 2021</t>
+  </si>
+  <si>
+    <t>DMD patients w/ mutation of the dystrophin gene that is amenable to exondys skipping</t>
+  </si>
+  <si>
+    <t>Skips exon 45 of the dystrophin gene</t>
+  </si>
+  <si>
+    <t>targets the most frequent series of mutations that cause DMD</t>
+  </si>
+  <si>
+    <t>"approx 13% of patients are amenable to exon 51 skipping"</t>
+  </si>
+  <si>
+    <t>"approx. 8% of patients are amenable to exon 45 skipping"</t>
+  </si>
+  <si>
+    <t>"approx 8% of DMD patients are amenable to exon 53 skipping"</t>
+  </si>
+  <si>
+    <t>AAV-based Gene Therapy</t>
+  </si>
+  <si>
+    <t>AAV Gene Therapy</t>
+  </si>
+  <si>
+    <t>Ambulatory</t>
+  </si>
+  <si>
+    <t>non-ambulatory approval adds ~1.1b</t>
+  </si>
+  <si>
+    <t>"elevidys is contraindicated in patients w/ any deletion in exon 8 and or exon 9 in the duchenne gene"</t>
+  </si>
+  <si>
+    <t>PMOs</t>
+  </si>
+  <si>
+    <t>Elevidys</t>
+  </si>
+  <si>
+    <t>LGMD2E</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>siRNA</t>
+  </si>
+  <si>
+    <t>Phase I/IIa "" in LGMD n= NCT:</t>
+  </si>
+  <si>
+    <t>Phase III "EMERGENE" in LGMD n= NCT:</t>
+  </si>
+  <si>
+    <t>SRP-9003</t>
+  </si>
+  <si>
+    <t>bidridistrogene xeboparvovec</t>
+  </si>
+  <si>
+    <t>Additionally, we are eligible to receive up to $1.7 billion in development, regulatory and sales milestone payments with respect to ELEVIDYS</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>In addition, the Roche Agreement provides that Roche will pay us royalties on net sales of ELEVIDYS, at a tiered royalty rate based on the average cost to manufacture ELEVIDYS.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -361,6 +476,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -471,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -530,6 +651,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,7 +690,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>124557</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -610,7 +740,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>608134</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -651,6 +781,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Liam R" id="{FE57897F-F5B8-446F-8A1C-39CF8F8F7A92}" userId="be0b8782fa6c70c8" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -968,12 +1104,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q5" dT="2025-08-16T04:45:10.05" personId="{FE57897F-F5B8-446F-8A1C-39CF8F8F7A92}" id="{CEB24C3D-CDB8-489E-9110-E6019D26EA47}">
+    <text>guidance</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3649CA3D-BD6D-4E02-8579-6A8963C974F1}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -982,7 +1126,7 @@
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="5.140625" customWidth="1"/>
@@ -1012,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="20">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -1024,9 +1168,11 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="J3" t="s">
         <v>1</v>
@@ -1040,12 +1186,16 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="J4" t="s">
@@ -1053,16 +1203,20 @@
       </c>
       <c r="K4" s="21">
         <f>K3*K2</f>
-        <v>1572.432</v>
+        <v>2162.0940000000001</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="J5" t="s">
@@ -1077,12 +1231,16 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="J6" t="s">
@@ -1110,15 +1268,22 @@
       </c>
       <c r="K7" s="21">
         <f>K4+K6-K5</f>
-        <v>2766.8919999999998</v>
+        <v>3356.5540000000001</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
       <c r="K8" s="20"/>
@@ -1127,43 +1292,84 @@
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="15"/>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G10" s="15"/>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G11" s="15"/>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G12" s="15"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G13" s="15"/>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="18">
@@ -1181,20 +1387,24 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="elevidys!A1" display="Elevidys (delandistrogen moxeparvovec-rokl)" xr:uid="{46F2F0FF-39E6-443B-9D44-8A57237C41D9}"/>
+    <hyperlink ref="B8" location="'SRP-9003'!A1" display="SRP-9003 (biridistrogene xeboparvovec)" xr:uid="{E3936CA6-57CB-4B5A-8B0A-E39CEF3A1E19}"/>
+    <hyperlink ref="B4" location="exondys!A1" display="Exondys (eteplirsen)" xr:uid="{AC366611-AA8C-48AA-B961-B6F652586431}"/>
+    <hyperlink ref="B5" location="vyondys!A1" display="Vyondys (golodirsen)" xr:uid="{1BAB316F-4C4E-4CEA-B39C-D094710AAB6D}"/>
+    <hyperlink ref="B6" location="amondys!A1" display="Amondys (casimersen)" xr:uid="{2F3C3B78-94E2-4B1C-9E85-EA285EC72AA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1A893-8ADE-4729-B205-F45738EE77EA}">
-  <dimension ref="A1:DI42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1A893-8ADE-4729-B205-F45738EE77EA}">
+  <dimension ref="A1:DI44"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1281,1253 +1491,1305 @@
       <c r="X2" s="23"/>
       <c r="Y2" s="23"/>
     </row>
-    <row r="3" spans="1:113" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A3" s="22"/>
+      <c r="B3" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+    </row>
+    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+    </row>
+    <row r="5" spans="1:113" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C5" s="24">
         <v>359.5</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G5" s="24">
         <v>611.5</v>
       </c>
-      <c r="N3" s="24">
+      <c r="H5" s="24">
+        <f>G5*1</f>
+        <v>611.5</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" ref="I5:J5" si="1">H5*1</f>
+        <v>611.5</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="1"/>
+        <v>611.5</v>
+      </c>
+      <c r="N5" s="24">
         <v>933</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O5" s="24">
         <v>1243.3</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P5" s="24">
         <v>1901.98</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q5" s="24">
         <v>2300</v>
       </c>
-      <c r="R3" s="24">
-        <f>Q3*1.01</f>
-        <v>2323</v>
-      </c>
-      <c r="S3" s="24">
-        <f t="shared" ref="S3:U3" si="1">R3*1.01</f>
-        <v>2346.23</v>
-      </c>
-      <c r="T3" s="24">
-        <f t="shared" si="1"/>
-        <v>2369.6923000000002</v>
-      </c>
-      <c r="U3" s="24">
-        <f t="shared" si="1"/>
-        <v>2393.3892230000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="21">
-        <v>139.97999999999999</v>
-      </c>
-      <c r="O4" s="21">
-        <v>150.34</v>
-      </c>
-      <c r="P4" s="21">
-        <v>319.10000000000002</v>
-      </c>
-      <c r="Q4" s="21">
-        <f>Q3*(1-Q18)</f>
-        <v>345.00000000000006</v>
-      </c>
-      <c r="R4" s="21">
-        <f t="shared" ref="R4:U4" si="2">R3*(1-R18)</f>
-        <v>348.45000000000005</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="R5" s="24">
+        <f>Q5*1</f>
+        <v>2300</v>
+      </c>
+      <c r="S5" s="24">
+        <f t="shared" ref="S5:U5" si="2">R5*1</f>
+        <v>2300</v>
+      </c>
+      <c r="T5" s="24">
         <f t="shared" si="2"/>
-        <v>351.93450000000007</v>
-      </c>
-      <c r="T4" s="21">
+        <v>2300</v>
+      </c>
+      <c r="U5" s="24">
         <f t="shared" si="2"/>
-        <v>355.45384500000006</v>
-      </c>
-      <c r="U4" s="21">
-        <f t="shared" si="2"/>
-        <v>359.00838345000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="21">
-        <f>L3-L4</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <f>M3-M4</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="21">
-        <f>N3-N4</f>
-        <v>793.02</v>
-      </c>
-      <c r="O5" s="21">
-        <f t="shared" ref="O5:P5" si="3">O3-O4</f>
-        <v>1092.96</v>
-      </c>
-      <c r="P5" s="21">
-        <f t="shared" si="3"/>
-        <v>1582.88</v>
-      </c>
-      <c r="Q5" s="21">
-        <f t="shared" ref="Q5" si="4">Q3-Q4</f>
-        <v>1955</v>
-      </c>
-      <c r="R5" s="21">
-        <f t="shared" ref="R5" si="5">R3-R4</f>
-        <v>1974.55</v>
-      </c>
-      <c r="S5" s="21">
-        <f t="shared" ref="S5" si="6">S3-S4</f>
-        <v>1994.2954999999999</v>
-      </c>
-      <c r="T5" s="21">
-        <f t="shared" ref="T5" si="7">T3-T4</f>
-        <v>2014.2384550000002</v>
-      </c>
-      <c r="U5" s="21">
-        <f t="shared" ref="U5" si="8">U3-U4</f>
-        <v>2034.38083955</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.2">
       <c r="B6" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N6" s="21">
-        <v>877</v>
+        <v>139.97999999999999</v>
       </c>
       <c r="O6" s="21">
-        <v>877.4</v>
+        <v>150.34</v>
       </c>
       <c r="P6" s="21">
-        <v>804.5</v>
+        <v>319.10000000000002</v>
+      </c>
+      <c r="Q6" s="21">
+        <f>Q5*(1-Q20)</f>
+        <v>345.00000000000006</v>
+      </c>
+      <c r="R6" s="21">
+        <f t="shared" ref="R6:U6" si="3">R5*(1-R20)</f>
+        <v>345.00000000000006</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="3"/>
+        <v>345.00000000000006</v>
+      </c>
+      <c r="T6" s="21">
+        <f t="shared" si="3"/>
+        <v>345.00000000000006</v>
+      </c>
+      <c r="U6" s="21">
+        <f t="shared" si="3"/>
+        <v>345.00000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:113" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="L7" s="21">
+        <f>L5-L6</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <f>M5-M6</f>
+        <v>0</v>
       </c>
       <c r="N7" s="21">
-        <v>451.4</v>
+        <f>N5-N6</f>
+        <v>793.02</v>
       </c>
       <c r="O7" s="21">
-        <v>481.9</v>
+        <f t="shared" ref="O7:P7" si="4">O5-O6</f>
+        <v>1092.96</v>
       </c>
       <c r="P7" s="21">
-        <v>557.9</v>
+        <f t="shared" si="4"/>
+        <v>1582.88</v>
       </c>
       <c r="Q7" s="21">
-        <f>P7*1.1</f>
-        <v>613.69000000000005</v>
+        <f t="shared" ref="Q7" si="5">Q5-Q6</f>
+        <v>1955</v>
       </c>
       <c r="R7" s="21">
-        <f t="shared" ref="R7:U7" si="9">Q7*1.02</f>
-        <v>625.96380000000011</v>
+        <f t="shared" ref="R7" si="6">R5-R6</f>
+        <v>1955</v>
       </c>
       <c r="S7" s="21">
-        <f t="shared" si="9"/>
-        <v>638.4830760000001</v>
+        <f t="shared" ref="S7" si="7">S5-S6</f>
+        <v>1955</v>
       </c>
       <c r="T7" s="21">
-        <f t="shared" si="9"/>
-        <v>651.2527375200001</v>
+        <f t="shared" ref="T7" si="8">T5-T6</f>
+        <v>1955</v>
       </c>
       <c r="U7" s="21">
-        <f t="shared" si="9"/>
-        <v>664.27779227040014</v>
+        <f t="shared" ref="U7" si="9">U5-U6</f>
+        <v>1955</v>
       </c>
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="21">
-        <f>SUM(L6:L7)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
-        <f t="shared" ref="M8:U8" si="10">SUM(M6:M7)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N8" s="21">
-        <f t="shared" si="10"/>
-        <v>1328.4</v>
+        <v>877</v>
       </c>
       <c r="O8" s="21">
-        <f t="shared" si="10"/>
-        <v>1359.3</v>
+        <v>877.4</v>
       </c>
       <c r="P8" s="21">
-        <f t="shared" si="10"/>
-        <v>1362.4</v>
-      </c>
-      <c r="Q8" s="21">
+        <v>804.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="21">
+        <v>451.4</v>
+      </c>
+      <c r="O9" s="21">
+        <v>481.9</v>
+      </c>
+      <c r="P9" s="21">
+        <v>557.9</v>
+      </c>
+      <c r="Q9" s="21">
+        <f>P9*1.1</f>
+        <v>613.69000000000005</v>
+      </c>
+      <c r="R9" s="21">
+        <f>Q9*1</f>
+        <v>613.69000000000005</v>
+      </c>
+      <c r="S9" s="21">
+        <f t="shared" ref="S9:U9" si="10">R9*1</f>
+        <v>613.69000000000005</v>
+      </c>
+      <c r="T9" s="21">
         <f t="shared" si="10"/>
         <v>613.69000000000005</v>
       </c>
-      <c r="R8" s="21">
+      <c r="U9" s="21">
         <f t="shared" si="10"/>
-        <v>625.96380000000011</v>
-      </c>
-      <c r="S8" s="21">
-        <f t="shared" si="10"/>
-        <v>638.4830760000001</v>
-      </c>
-      <c r="T8" s="21">
-        <f t="shared" si="10"/>
-        <v>651.2527375200001</v>
-      </c>
-      <c r="U8" s="21">
-        <f t="shared" si="10"/>
-        <v>664.27779227040014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="21">
-        <f>L5-L8</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
-        <f t="shared" ref="M9:U9" si="11">M5-M8</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="21">
-        <f t="shared" si="11"/>
-        <v>-535.38000000000011</v>
-      </c>
-      <c r="O9" s="21">
-        <f t="shared" si="11"/>
-        <v>-266.33999999999992</v>
-      </c>
-      <c r="P9" s="21">
-        <f t="shared" si="11"/>
-        <v>220.48000000000002</v>
-      </c>
-      <c r="Q9" s="21">
-        <f t="shared" si="11"/>
-        <v>1341.31</v>
-      </c>
-      <c r="R9" s="21">
-        <f t="shared" si="11"/>
-        <v>1348.5861999999997</v>
-      </c>
-      <c r="S9" s="21">
-        <f t="shared" si="11"/>
-        <v>1355.8124239999997</v>
-      </c>
-      <c r="T9" s="21">
-        <f t="shared" si="11"/>
-        <v>1362.9857174799999</v>
-      </c>
-      <c r="U9" s="21">
-        <f t="shared" si="11"/>
-        <v>1370.1030472795999</v>
+        <v>613.69000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:113" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="L10" s="21">
+        <f>SUM(L8:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" ref="M10:U10" si="11">SUM(M8:M9)</f>
+        <v>0</v>
       </c>
       <c r="N10" s="21">
-        <v>-28.3</v>
+        <f t="shared" si="11"/>
+        <v>1328.4</v>
       </c>
       <c r="O10" s="21">
-        <v>33</v>
+        <f t="shared" si="11"/>
+        <v>1359.3</v>
       </c>
       <c r="P10" s="21">
-        <v>42.7</v>
+        <f t="shared" si="11"/>
+        <v>1362.4</v>
       </c>
       <c r="Q10" s="21">
-        <f>P21*$X$15</f>
-        <v>4.354000000000001</v>
+        <f t="shared" si="11"/>
+        <v>613.69000000000005</v>
       </c>
       <c r="R10" s="21">
-        <f t="shared" ref="R10:U10" si="12">Q21*$X$15</f>
-        <v>25.884623999999999</v>
+        <f t="shared" si="11"/>
+        <v>613.69000000000005</v>
       </c>
       <c r="S10" s="21">
-        <f t="shared" si="12"/>
-        <v>47.876157183999993</v>
+        <f t="shared" si="11"/>
+        <v>613.69000000000005</v>
       </c>
       <c r="T10" s="21">
-        <f t="shared" si="12"/>
-        <v>70.335174482943984</v>
+        <f t="shared" si="11"/>
+        <v>613.69000000000005</v>
       </c>
       <c r="U10" s="21">
-        <f t="shared" si="12"/>
-        <v>93.268308754351096</v>
+        <f t="shared" si="11"/>
+        <v>613.69000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:113" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L11" s="21">
-        <f>L9+L10</f>
+        <f>L7-L10</f>
         <v>0</v>
       </c>
       <c r="M11" s="21">
-        <f t="shared" ref="M11:U11" si="13">M9+M10</f>
+        <f t="shared" ref="M11:U11" si="12">M7-M10</f>
         <v>0</v>
       </c>
       <c r="N11" s="21">
-        <f t="shared" si="13"/>
-        <v>-563.68000000000006</v>
+        <f t="shared" si="12"/>
+        <v>-535.38000000000011</v>
       </c>
       <c r="O11" s="21">
-        <f t="shared" si="13"/>
-        <v>-233.33999999999992</v>
+        <f t="shared" si="12"/>
+        <v>-266.33999999999992</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="13"/>
-        <v>263.18</v>
+        <f t="shared" si="12"/>
+        <v>220.48000000000002</v>
       </c>
       <c r="Q11" s="21">
-        <f t="shared" si="13"/>
-        <v>1345.664</v>
+        <f t="shared" si="12"/>
+        <v>1341.31</v>
       </c>
       <c r="R11" s="21">
-        <f t="shared" si="13"/>
-        <v>1374.4708239999998</v>
+        <f t="shared" si="12"/>
+        <v>1341.31</v>
       </c>
       <c r="S11" s="21">
-        <f t="shared" si="13"/>
-        <v>1403.6885811839998</v>
+        <f t="shared" si="12"/>
+        <v>1341.31</v>
       </c>
       <c r="T11" s="21">
-        <f t="shared" si="13"/>
-        <v>1433.320891962944</v>
+        <f t="shared" si="12"/>
+        <v>1341.31</v>
       </c>
       <c r="U11" s="21">
-        <f t="shared" si="13"/>
-        <v>1463.3713560339511</v>
+        <f t="shared" si="12"/>
+        <v>1341.31</v>
       </c>
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N12" s="21">
-        <v>13.5</v>
+        <v>-28.3</v>
       </c>
       <c r="O12" s="21">
-        <v>15.9</v>
+        <v>33</v>
       </c>
       <c r="P12" s="21">
-        <v>25.5</v>
+        <v>42.7</v>
       </c>
       <c r="Q12" s="21">
-        <f>Q11*0.2</f>
-        <v>269.13280000000003</v>
+        <f>P23*$X$17</f>
+        <v>4.354000000000001</v>
       </c>
       <c r="R12" s="21">
-        <f t="shared" ref="R12:U12" si="14">R11*0.2</f>
-        <v>274.89416479999994</v>
+        <f t="shared" ref="R12:U12" si="13">Q23*$X$17</f>
+        <v>25.884623999999999</v>
       </c>
       <c r="S12" s="21">
-        <f t="shared" si="14"/>
-        <v>280.73771623679994</v>
+        <f t="shared" si="13"/>
+        <v>47.759737984000004</v>
       </c>
       <c r="T12" s="21">
-        <f t="shared" si="14"/>
-        <v>286.66417839258878</v>
+        <f t="shared" si="13"/>
+        <v>69.984853791744001</v>
       </c>
       <c r="U12" s="21">
-        <f t="shared" si="14"/>
-        <v>292.67427120679025</v>
+        <f t="shared" si="13"/>
+        <v>92.565571452411902</v>
       </c>
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L13" s="21">
-        <f>L11-L12</f>
+        <f>L11+L12</f>
         <v>0</v>
       </c>
       <c r="M13" s="21">
-        <f t="shared" ref="M13:U13" si="15">M11-M12</f>
+        <f t="shared" ref="M13:U13" si="14">M11+M12</f>
         <v>0</v>
       </c>
       <c r="N13" s="21">
-        <f t="shared" si="15"/>
-        <v>-577.18000000000006</v>
+        <f t="shared" si="14"/>
+        <v>-563.68000000000006</v>
       </c>
       <c r="O13" s="21">
-        <f t="shared" si="15"/>
-        <v>-249.23999999999992</v>
+        <f t="shared" si="14"/>
+        <v>-233.33999999999992</v>
       </c>
       <c r="P13" s="21">
-        <f t="shared" si="15"/>
-        <v>237.68</v>
+        <f t="shared" si="14"/>
+        <v>263.18</v>
       </c>
       <c r="Q13" s="21">
-        <f t="shared" si="15"/>
-        <v>1076.5311999999999</v>
+        <f t="shared" si="14"/>
+        <v>1345.664</v>
       </c>
       <c r="R13" s="21">
-        <f t="shared" si="15"/>
-        <v>1099.5766591999998</v>
+        <f t="shared" si="14"/>
+        <v>1367.194624</v>
       </c>
       <c r="S13" s="21">
-        <f t="shared" si="15"/>
-        <v>1122.9508649471998</v>
+        <f t="shared" si="14"/>
+        <v>1389.0697379839999</v>
       </c>
       <c r="T13" s="21">
-        <f t="shared" si="15"/>
-        <v>1146.6567135703551</v>
+        <f t="shared" si="14"/>
+        <v>1411.2948537917439</v>
       </c>
       <c r="U13" s="21">
-        <f t="shared" si="15"/>
-        <v>1170.6970848271608</v>
-      </c>
-      <c r="V13" s="21">
-        <f>U13*(1+$X$16)</f>
-        <v>1135.5761722823459</v>
-      </c>
-      <c r="W13" s="21">
-        <f t="shared" ref="W13:CH13" si="16">V13*(1+$X$16)</f>
-        <v>1101.5088871138755</v>
-      </c>
-      <c r="X13" s="21">
-        <f t="shared" si="16"/>
-        <v>1068.4636205004592</v>
-      </c>
-      <c r="Y13" s="21">
-        <f t="shared" si="16"/>
-        <v>1036.4097118854454</v>
-      </c>
-      <c r="Z13" s="21">
-        <f t="shared" si="16"/>
-        <v>1005.3174205288821</v>
-      </c>
-      <c r="AA13" s="21">
-        <f t="shared" si="16"/>
-        <v>975.15789791301552</v>
-      </c>
-      <c r="AB13" s="21">
-        <f t="shared" si="16"/>
-        <v>945.90316097562504</v>
-      </c>
-      <c r="AC13" s="21">
-        <f t="shared" si="16"/>
-        <v>917.52606614635624</v>
-      </c>
-      <c r="AD13" s="21">
-        <f t="shared" si="16"/>
-        <v>890.00028416196551</v>
-      </c>
-      <c r="AE13" s="21">
-        <f t="shared" si="16"/>
-        <v>863.30027563710655</v>
-      </c>
-      <c r="AF13" s="21">
-        <f t="shared" si="16"/>
-        <v>837.40126736799334</v>
-      </c>
-      <c r="AG13" s="21">
-        <f t="shared" si="16"/>
-        <v>812.27922934695357</v>
-      </c>
-      <c r="AH13" s="21">
-        <f t="shared" si="16"/>
-        <v>787.91085246654495</v>
-      </c>
-      <c r="AI13" s="21">
-        <f t="shared" si="16"/>
-        <v>764.2735268925486</v>
-      </c>
-      <c r="AJ13" s="21">
-        <f t="shared" si="16"/>
-        <v>741.34532108577207</v>
-      </c>
-      <c r="AK13" s="21">
-        <f t="shared" si="16"/>
-        <v>719.10496145319894</v>
-      </c>
-      <c r="AL13" s="21">
-        <f t="shared" si="16"/>
-        <v>697.53181260960298</v>
-      </c>
-      <c r="AM13" s="21">
-        <f t="shared" si="16"/>
-        <v>676.60585823131487</v>
-      </c>
-      <c r="AN13" s="21">
-        <f t="shared" si="16"/>
-        <v>656.30768248437539</v>
-      </c>
-      <c r="AO13" s="21">
-        <f t="shared" si="16"/>
-        <v>636.61845200984408</v>
-      </c>
-      <c r="AP13" s="21">
-        <f t="shared" si="16"/>
-        <v>617.51989844954869</v>
-      </c>
-      <c r="AQ13" s="21">
-        <f t="shared" si="16"/>
-        <v>598.99430149606223</v>
-      </c>
-      <c r="AR13" s="21">
-        <f t="shared" si="16"/>
-        <v>581.02447245118037</v>
-      </c>
-      <c r="AS13" s="21">
-        <f t="shared" si="16"/>
-        <v>563.593738277645</v>
-      </c>
-      <c r="AT13" s="21">
-        <f t="shared" si="16"/>
-        <v>546.68592612931559</v>
-      </c>
-      <c r="AU13" s="21">
-        <f t="shared" si="16"/>
-        <v>530.28534834543609</v>
-      </c>
-      <c r="AV13" s="21">
-        <f t="shared" si="16"/>
-        <v>514.37678789507299</v>
-      </c>
-      <c r="AW13" s="21">
-        <f t="shared" si="16"/>
-        <v>498.9454842582208</v>
-      </c>
-      <c r="AX13" s="21">
-        <f t="shared" si="16"/>
-        <v>483.97711973047416</v>
-      </c>
-      <c r="AY13" s="21">
-        <f t="shared" si="16"/>
-        <v>469.45780613855993</v>
-      </c>
-      <c r="AZ13" s="21">
-        <f t="shared" si="16"/>
-        <v>455.37407195440312</v>
-      </c>
-      <c r="BA13" s="21">
-        <f t="shared" si="16"/>
-        <v>441.71284979577104</v>
-      </c>
-      <c r="BB13" s="21">
-        <f t="shared" si="16"/>
-        <v>428.46146430189788</v>
-      </c>
-      <c r="BC13" s="21">
-        <f t="shared" si="16"/>
-        <v>415.60762037284093</v>
-      </c>
-      <c r="BD13" s="21">
-        <f t="shared" si="16"/>
-        <v>403.1393917616557</v>
-      </c>
-      <c r="BE13" s="21">
-        <f t="shared" si="16"/>
-        <v>391.04521000880601</v>
-      </c>
-      <c r="BF13" s="21">
-        <f t="shared" si="16"/>
-        <v>379.31385370854184</v>
-      </c>
-      <c r="BG13" s="21">
-        <f t="shared" si="16"/>
-        <v>367.93443809728558</v>
-      </c>
-      <c r="BH13" s="21">
-        <f t="shared" si="16"/>
-        <v>356.89640495436703</v>
-      </c>
-      <c r="BI13" s="21">
-        <f t="shared" si="16"/>
-        <v>346.189512805736</v>
-      </c>
-      <c r="BJ13" s="21">
-        <f t="shared" si="16"/>
-        <v>335.80382742156394</v>
-      </c>
-      <c r="BK13" s="21">
-        <f t="shared" si="16"/>
-        <v>325.72971259891699</v>
-      </c>
-      <c r="BL13" s="21">
-        <f t="shared" si="16"/>
-        <v>315.95782122094948</v>
-      </c>
-      <c r="BM13" s="21">
-        <f t="shared" si="16"/>
-        <v>306.47908658432101</v>
-      </c>
-      <c r="BN13" s="21">
-        <f t="shared" si="16"/>
-        <v>297.28471398679136</v>
-      </c>
-      <c r="BO13" s="21">
-        <f t="shared" si="16"/>
-        <v>288.36617256718762</v>
-      </c>
-      <c r="BP13" s="21">
-        <f t="shared" si="16"/>
-        <v>279.71518739017199</v>
-      </c>
-      <c r="BQ13" s="21">
-        <f t="shared" si="16"/>
-        <v>271.32373176846681</v>
-      </c>
-      <c r="BR13" s="21">
-        <f t="shared" si="16"/>
-        <v>263.1840198154128</v>
-      </c>
-      <c r="BS13" s="21">
-        <f t="shared" si="16"/>
-        <v>255.2884992209504</v>
-      </c>
-      <c r="BT13" s="21">
-        <f t="shared" si="16"/>
-        <v>247.62984424432187</v>
-      </c>
-      <c r="BU13" s="21">
-        <f t="shared" si="16"/>
-        <v>240.20094891699222</v>
-      </c>
-      <c r="BV13" s="21">
-        <f t="shared" si="16"/>
-        <v>232.99492044948244</v>
-      </c>
-      <c r="BW13" s="21">
-        <f t="shared" si="16"/>
-        <v>226.00507283599796</v>
-      </c>
-      <c r="BX13" s="21">
-        <f t="shared" si="16"/>
-        <v>219.22492065091802</v>
-      </c>
-      <c r="BY13" s="21">
-        <f t="shared" si="16"/>
-        <v>212.64817303139048</v>
-      </c>
-      <c r="BZ13" s="21">
-        <f t="shared" si="16"/>
-        <v>206.26872784044878</v>
-      </c>
-      <c r="CA13" s="21">
-        <f t="shared" si="16"/>
-        <v>200.08066600523532</v>
-      </c>
-      <c r="CB13" s="21">
-        <f t="shared" si="16"/>
-        <v>194.07824602507824</v>
-      </c>
-      <c r="CC13" s="21">
-        <f t="shared" si="16"/>
-        <v>188.2558986443259</v>
-      </c>
-      <c r="CD13" s="21">
-        <f t="shared" si="16"/>
-        <v>182.60822168499612</v>
-      </c>
-      <c r="CE13" s="21">
-        <f t="shared" si="16"/>
-        <v>177.12997503444623</v>
-      </c>
-      <c r="CF13" s="21">
-        <f t="shared" si="16"/>
-        <v>171.81607578341283</v>
-      </c>
-      <c r="CG13" s="21">
-        <f t="shared" si="16"/>
-        <v>166.66159350991043</v>
-      </c>
-      <c r="CH13" s="21">
-        <f t="shared" si="16"/>
-        <v>161.66174570461311</v>
-      </c>
-      <c r="CI13" s="21">
-        <f t="shared" ref="CI13:DI13" si="17">CH13*(1+$X$16)</f>
-        <v>156.8118933334747</v>
-      </c>
-      <c r="CJ13" s="21">
-        <f t="shared" si="17"/>
-        <v>152.10753653347047</v>
-      </c>
-      <c r="CK13" s="21">
-        <f t="shared" si="17"/>
-        <v>147.54431043746635</v>
-      </c>
-      <c r="CL13" s="21">
-        <f t="shared" si="17"/>
-        <v>143.11798112434235</v>
-      </c>
-      <c r="CM13" s="21">
-        <f t="shared" si="17"/>
-        <v>138.82444169061208</v>
-      </c>
-      <c r="CN13" s="21">
-        <f t="shared" si="17"/>
-        <v>134.65970843989371</v>
-      </c>
-      <c r="CO13" s="21">
-        <f t="shared" si="17"/>
-        <v>130.61991718669688</v>
-      </c>
-      <c r="CP13" s="21">
-        <f t="shared" si="17"/>
-        <v>126.70131967109597</v>
-      </c>
-      <c r="CQ13" s="21">
-        <f t="shared" si="17"/>
-        <v>122.90028008096309</v>
-      </c>
-      <c r="CR13" s="21">
-        <f t="shared" si="17"/>
-        <v>119.21327167853418</v>
-      </c>
-      <c r="CS13" s="21">
-        <f t="shared" si="17"/>
-        <v>115.63687352817816</v>
-      </c>
-      <c r="CT13" s="21">
-        <f t="shared" si="17"/>
-        <v>112.16776732233281</v>
-      </c>
-      <c r="CU13" s="21">
-        <f t="shared" si="17"/>
-        <v>108.80273430266281</v>
-      </c>
-      <c r="CV13" s="21">
-        <f t="shared" si="17"/>
-        <v>105.53865227358293</v>
-      </c>
-      <c r="CW13" s="21">
-        <f t="shared" si="17"/>
-        <v>102.37249270537544</v>
-      </c>
-      <c r="CX13" s="21">
-        <f t="shared" si="17"/>
-        <v>99.301317924214175</v>
-      </c>
-      <c r="CY13" s="21">
-        <f t="shared" si="17"/>
-        <v>96.322278386487753</v>
-      </c>
-      <c r="CZ13" s="21">
-        <f t="shared" si="17"/>
-        <v>93.432610034893116</v>
-      </c>
-      <c r="DA13" s="21">
-        <f t="shared" si="17"/>
-        <v>90.629631733846324</v>
-      </c>
-      <c r="DB13" s="21">
-        <f t="shared" si="17"/>
-        <v>87.910742781830933</v>
-      </c>
-      <c r="DC13" s="21">
-        <f t="shared" si="17"/>
-        <v>85.273420498375998</v>
-      </c>
-      <c r="DD13" s="21">
-        <f t="shared" si="17"/>
-        <v>82.715217883424714</v>
-      </c>
-      <c r="DE13" s="21">
-        <f t="shared" si="17"/>
-        <v>80.233761346921966</v>
-      </c>
-      <c r="DF13" s="21">
-        <f t="shared" si="17"/>
-        <v>77.826748506514306</v>
-      </c>
-      <c r="DG13" s="21">
-        <f t="shared" si="17"/>
-        <v>75.491946051318877</v>
-      </c>
-      <c r="DH13" s="21">
-        <f t="shared" si="17"/>
-        <v>73.227187669779312</v>
-      </c>
-      <c r="DI13" s="21">
-        <f t="shared" si="17"/>
-        <v>71.030372039685929</v>
+        <f t="shared" si="14"/>
+        <v>1433.8755714524118</v>
       </c>
     </row>
     <row r="14" spans="1:113" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N14" s="21">
-        <v>87.558999999999997</v>
+        <v>13.5</v>
       </c>
       <c r="O14" s="21">
-        <v>92.397999999999996</v>
+        <v>15.9</v>
       </c>
       <c r="P14" s="21">
-        <v>95.1</v>
+        <v>25.5</v>
       </c>
       <c r="Q14" s="21">
-        <f>P14</f>
-        <v>95.1</v>
+        <f>Q13*0.2</f>
+        <v>269.13280000000003</v>
       </c>
       <c r="R14" s="21">
-        <f t="shared" ref="R14:U14" si="18">Q14</f>
-        <v>95.1</v>
+        <f t="shared" ref="R14:U14" si="15">R13*0.2</f>
+        <v>273.4389248</v>
       </c>
       <c r="S14" s="21">
-        <f t="shared" si="18"/>
-        <v>95.1</v>
+        <f t="shared" si="15"/>
+        <v>277.81394759680001</v>
       </c>
       <c r="T14" s="21">
-        <f t="shared" si="18"/>
-        <v>95.1</v>
+        <f t="shared" si="15"/>
+        <v>282.25897075834877</v>
       </c>
       <c r="U14" s="21">
-        <f t="shared" si="18"/>
-        <v>95.1</v>
+        <f t="shared" si="15"/>
+        <v>286.77511429048235</v>
       </c>
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="21">
+        <f>L13-L14</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <f t="shared" ref="M15:U15" si="16">M13-M14</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
+        <f t="shared" si="16"/>
+        <v>-577.18000000000006</v>
+      </c>
+      <c r="O15" s="21">
+        <f t="shared" si="16"/>
+        <v>-249.23999999999992</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" si="16"/>
+        <v>237.68</v>
+      </c>
+      <c r="Q15" s="21">
+        <f t="shared" si="16"/>
+        <v>1076.5311999999999</v>
+      </c>
+      <c r="R15" s="21">
+        <f t="shared" si="16"/>
+        <v>1093.7556992</v>
+      </c>
+      <c r="S15" s="21">
+        <f t="shared" si="16"/>
+        <v>1111.2557903871998</v>
+      </c>
+      <c r="T15" s="21">
+        <f t="shared" si="16"/>
+        <v>1129.0358830333951</v>
+      </c>
+      <c r="U15" s="21">
+        <f t="shared" si="16"/>
+        <v>1147.1004571619294</v>
+      </c>
+      <c r="V15" s="21">
+        <f>U15*(1+$X$18)</f>
+        <v>1112.6874434470715</v>
+      </c>
+      <c r="W15" s="21">
+        <f t="shared" ref="W15:CH15" si="17">V15*(1+$X$18)</f>
+        <v>1079.3068201436593</v>
+      </c>
+      <c r="X15" s="21">
+        <f t="shared" si="17"/>
+        <v>1046.9276155393495</v>
+      </c>
+      <c r="Y15" s="21">
+        <f t="shared" si="17"/>
+        <v>1015.519787073169</v>
+      </c>
+      <c r="Z15" s="21">
+        <f t="shared" si="17"/>
+        <v>985.05419346097392</v>
+      </c>
+      <c r="AA15" s="21">
+        <f t="shared" si="17"/>
+        <v>955.50256765714471</v>
+      </c>
+      <c r="AB15" s="21">
+        <f t="shared" si="17"/>
+        <v>926.83749062743038</v>
+      </c>
+      <c r="AC15" s="21">
+        <f t="shared" si="17"/>
+        <v>899.0323659086074</v>
+      </c>
+      <c r="AD15" s="21">
+        <f t="shared" si="17"/>
+        <v>872.06139493134913</v>
+      </c>
+      <c r="AE15" s="21">
+        <f t="shared" si="17"/>
+        <v>845.89955308340859</v>
+      </c>
+      <c r="AF15" s="21">
+        <f t="shared" si="17"/>
+        <v>820.52256649090634</v>
+      </c>
+      <c r="AG15" s="21">
+        <f t="shared" si="17"/>
+        <v>795.90688949617913</v>
+      </c>
+      <c r="AH15" s="21">
+        <f t="shared" si="17"/>
+        <v>772.0296828112937</v>
+      </c>
+      <c r="AI15" s="21">
+        <f t="shared" si="17"/>
+        <v>748.86879232695492</v>
+      </c>
+      <c r="AJ15" s="21">
+        <f t="shared" si="17"/>
+        <v>726.40272855714625</v>
+      </c>
+      <c r="AK15" s="21">
+        <f t="shared" si="17"/>
+        <v>704.61064670043186</v>
+      </c>
+      <c r="AL15" s="21">
+        <f t="shared" si="17"/>
+        <v>683.47232729941891</v>
+      </c>
+      <c r="AM15" s="21">
+        <f t="shared" si="17"/>
+        <v>662.96815748043628</v>
+      </c>
+      <c r="AN15" s="21">
+        <f t="shared" si="17"/>
+        <v>643.07911275602316</v>
+      </c>
+      <c r="AO15" s="21">
+        <f t="shared" si="17"/>
+        <v>623.78673937334247</v>
+      </c>
+      <c r="AP15" s="21">
+        <f t="shared" si="17"/>
+        <v>605.07313719214221</v>
+      </c>
+      <c r="AQ15" s="21">
+        <f t="shared" si="17"/>
+        <v>586.92094307637797</v>
+      </c>
+      <c r="AR15" s="21">
+        <f t="shared" si="17"/>
+        <v>569.31331478408663</v>
+      </c>
+      <c r="AS15" s="21">
+        <f t="shared" si="17"/>
+        <v>552.23391534056407</v>
+      </c>
+      <c r="AT15" s="21">
+        <f t="shared" si="17"/>
+        <v>535.66689788034716</v>
+      </c>
+      <c r="AU15" s="21">
+        <f t="shared" si="17"/>
+        <v>519.59689094393673</v>
+      </c>
+      <c r="AV15" s="21">
+        <f t="shared" si="17"/>
+        <v>504.00898421561863</v>
+      </c>
+      <c r="AW15" s="21">
+        <f t="shared" si="17"/>
+        <v>488.88871468915005</v>
+      </c>
+      <c r="AX15" s="21">
+        <f t="shared" si="17"/>
+        <v>474.22205324847556</v>
+      </c>
+      <c r="AY15" s="21">
+        <f t="shared" si="17"/>
+        <v>459.99539165102129</v>
+      </c>
+      <c r="AZ15" s="21">
+        <f t="shared" si="17"/>
+        <v>446.19552990149066</v>
+      </c>
+      <c r="BA15" s="21">
+        <f t="shared" si="17"/>
+        <v>432.80966400444595</v>
+      </c>
+      <c r="BB15" s="21">
+        <f t="shared" si="17"/>
+        <v>419.82537408431256</v>
+      </c>
+      <c r="BC15" s="21">
+        <f t="shared" si="17"/>
+        <v>407.23061286178319</v>
+      </c>
+      <c r="BD15" s="21">
+        <f t="shared" si="17"/>
+        <v>395.0136944759297</v>
+      </c>
+      <c r="BE15" s="21">
+        <f t="shared" si="17"/>
+        <v>383.16328364165179</v>
+      </c>
+      <c r="BF15" s="21">
+        <f t="shared" si="17"/>
+        <v>371.66838513240225</v>
+      </c>
+      <c r="BG15" s="21">
+        <f t="shared" si="17"/>
+        <v>360.51833357843014</v>
+      </c>
+      <c r="BH15" s="21">
+        <f t="shared" si="17"/>
+        <v>349.70278357107725</v>
+      </c>
+      <c r="BI15" s="21">
+        <f t="shared" si="17"/>
+        <v>339.21170006394493</v>
+      </c>
+      <c r="BJ15" s="21">
+        <f t="shared" si="17"/>
+        <v>329.03534906202657</v>
+      </c>
+      <c r="BK15" s="21">
+        <f t="shared" si="17"/>
+        <v>319.16428859016577</v>
+      </c>
+      <c r="BL15" s="21">
+        <f t="shared" si="17"/>
+        <v>309.58935993246081</v>
+      </c>
+      <c r="BM15" s="21">
+        <f t="shared" si="17"/>
+        <v>300.30167913448696</v>
+      </c>
+      <c r="BN15" s="21">
+        <f t="shared" si="17"/>
+        <v>291.29262876045232</v>
+      </c>
+      <c r="BO15" s="21">
+        <f t="shared" si="17"/>
+        <v>282.55384989763871</v>
+      </c>
+      <c r="BP15" s="21">
+        <f t="shared" si="17"/>
+        <v>274.07723440070953</v>
+      </c>
+      <c r="BQ15" s="21">
+        <f t="shared" si="17"/>
+        <v>265.85491736868823</v>
+      </c>
+      <c r="BR15" s="21">
+        <f t="shared" si="17"/>
+        <v>257.8792698476276</v>
+      </c>
+      <c r="BS15" s="21">
+        <f t="shared" si="17"/>
+        <v>250.14289175219875</v>
+      </c>
+      <c r="BT15" s="21">
+        <f t="shared" si="17"/>
+        <v>242.63860499963278</v>
+      </c>
+      <c r="BU15" s="21">
+        <f t="shared" si="17"/>
+        <v>235.35944684964377</v>
+      </c>
+      <c r="BV15" s="21">
+        <f t="shared" si="17"/>
+        <v>228.29866344415444</v>
+      </c>
+      <c r="BW15" s="21">
+        <f t="shared" si="17"/>
+        <v>221.4497035408298</v>
+      </c>
+      <c r="BX15" s="21">
+        <f t="shared" si="17"/>
+        <v>214.8062124346049</v>
+      </c>
+      <c r="BY15" s="21">
+        <f t="shared" si="17"/>
+        <v>208.36202606156675</v>
+      </c>
+      <c r="BZ15" s="21">
+        <f t="shared" si="17"/>
+        <v>202.11116527971976</v>
+      </c>
+      <c r="CA15" s="21">
+        <f t="shared" si="17"/>
+        <v>196.04783032132815</v>
+      </c>
+      <c r="CB15" s="21">
+        <f t="shared" si="17"/>
+        <v>190.16639541168831</v>
+      </c>
+      <c r="CC15" s="21">
+        <f t="shared" si="17"/>
+        <v>184.46140354933766</v>
+      </c>
+      <c r="CD15" s="21">
+        <f t="shared" si="17"/>
+        <v>178.92756144285752</v>
+      </c>
+      <c r="CE15" s="21">
+        <f t="shared" si="17"/>
+        <v>173.55973459957178</v>
+      </c>
+      <c r="CF15" s="21">
+        <f t="shared" si="17"/>
+        <v>168.35294256158463</v>
+      </c>
+      <c r="CG15" s="21">
+        <f t="shared" si="17"/>
+        <v>163.30235428473708</v>
+      </c>
+      <c r="CH15" s="21">
+        <f t="shared" si="17"/>
+        <v>158.40328365619496</v>
+      </c>
+      <c r="CI15" s="21">
+        <f t="shared" ref="CI15:DI15" si="18">CH15*(1+$X$18)</f>
+        <v>153.65118514650911</v>
+      </c>
+      <c r="CJ15" s="21">
+        <f t="shared" si="18"/>
+        <v>149.04164959211383</v>
+      </c>
+      <c r="CK15" s="21">
+        <f t="shared" si="18"/>
+        <v>144.5704001043504</v>
+      </c>
+      <c r="CL15" s="21">
+        <f t="shared" si="18"/>
+        <v>140.23328810121987</v>
+      </c>
+      <c r="CM15" s="21">
+        <f t="shared" si="18"/>
+        <v>136.02628945818327</v>
+      </c>
+      <c r="CN15" s="21">
+        <f t="shared" si="18"/>
+        <v>131.94550077443776</v>
+      </c>
+      <c r="CO15" s="21">
+        <f t="shared" si="18"/>
+        <v>127.98713575120462</v>
+      </c>
+      <c r="CP15" s="21">
+        <f t="shared" si="18"/>
+        <v>124.14752167866848</v>
+      </c>
+      <c r="CQ15" s="21">
+        <f t="shared" si="18"/>
+        <v>120.42309602830842</v>
+      </c>
+      <c r="CR15" s="21">
+        <f t="shared" si="18"/>
+        <v>116.81040314745917</v>
+      </c>
+      <c r="CS15" s="21">
+        <f t="shared" si="18"/>
+        <v>113.30609105303539</v>
+      </c>
+      <c r="CT15" s="21">
+        <f t="shared" si="18"/>
+        <v>109.90690832144432</v>
+      </c>
+      <c r="CU15" s="21">
+        <f t="shared" si="18"/>
+        <v>106.60970107180098</v>
+      </c>
+      <c r="CV15" s="21">
+        <f t="shared" si="18"/>
+        <v>103.41141003964695</v>
+      </c>
+      <c r="CW15" s="21">
+        <f t="shared" si="18"/>
+        <v>100.30906773845754</v>
+      </c>
+      <c r="CX15" s="21">
+        <f t="shared" si="18"/>
+        <v>97.299795706303811</v>
+      </c>
+      <c r="CY15" s="21">
+        <f t="shared" si="18"/>
+        <v>94.380801835114696</v>
+      </c>
+      <c r="CZ15" s="21">
+        <f t="shared" si="18"/>
+        <v>91.549377780061249</v>
+      </c>
+      <c r="DA15" s="21">
+        <f t="shared" si="18"/>
+        <v>88.802896446659403</v>
+      </c>
+      <c r="DB15" s="21">
+        <f t="shared" si="18"/>
+        <v>86.13880955325962</v>
+      </c>
+      <c r="DC15" s="21">
+        <f t="shared" si="18"/>
+        <v>83.554645266661822</v>
+      </c>
+      <c r="DD15" s="21">
+        <f t="shared" si="18"/>
+        <v>81.048005908661963</v>
+      </c>
+      <c r="DE15" s="21">
+        <f t="shared" si="18"/>
+        <v>78.616565731402105</v>
+      </c>
+      <c r="DF15" s="21">
+        <f t="shared" si="18"/>
+        <v>76.258068759460045</v>
+      </c>
+      <c r="DG15" s="21">
+        <f t="shared" si="18"/>
+        <v>73.970326696676238</v>
+      </c>
+      <c r="DH15" s="21">
+        <f t="shared" si="18"/>
+        <v>71.751216895775954</v>
+      </c>
+      <c r="DI15" s="21">
+        <f t="shared" si="18"/>
+        <v>69.598680388902679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="21">
+        <v>87.558999999999997</v>
+      </c>
+      <c r="O16" s="21">
+        <v>92.397999999999996</v>
+      </c>
+      <c r="P16" s="21">
+        <v>95.1</v>
+      </c>
+      <c r="Q16" s="21">
+        <f>P16</f>
+        <v>95.1</v>
+      </c>
+      <c r="R16" s="21">
+        <f t="shared" ref="R16:U16" si="19">Q16</f>
+        <v>95.1</v>
+      </c>
+      <c r="S16" s="21">
+        <f t="shared" si="19"/>
+        <v>95.1</v>
+      </c>
+      <c r="T16" s="21">
+        <f t="shared" si="19"/>
+        <v>95.1</v>
+      </c>
+      <c r="U16" s="21">
+        <f t="shared" si="19"/>
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="20" t="e">
-        <f>L13/L14</f>
+      <c r="L17" s="20" t="e">
+        <f>L15/L16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="20" t="e">
-        <f>M13/M14</f>
+      <c r="M17" s="20" t="e">
+        <f>M15/M16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="20">
-        <f>N13/N14</f>
+      <c r="N17" s="20">
+        <f>N15/N16</f>
         <v>-6.5918980344681879</v>
       </c>
-      <c r="O15" s="20">
-        <f t="shared" ref="O15:P15" si="19">O13/O14</f>
+      <c r="O17" s="20">
+        <f t="shared" ref="O17:P17" si="20">O15/O16</f>
         <v>-2.6974609840039823</v>
       </c>
-      <c r="P15" s="20">
-        <f t="shared" si="19"/>
+      <c r="P17" s="20">
+        <f t="shared" si="20"/>
         <v>2.4992639327024189</v>
       </c>
-      <c r="Q15" s="20">
-        <f t="shared" ref="Q15" si="20">Q13/Q14</f>
+      <c r="Q17" s="20">
+        <f t="shared" ref="Q17" si="21">Q15/Q16</f>
         <v>11.319991587802313</v>
       </c>
-      <c r="R15" s="20">
-        <f t="shared" ref="R15" si="21">R13/R14</f>
-        <v>11.562320286014719</v>
-      </c>
-      <c r="S15" s="20">
-        <f t="shared" ref="S15" si="22">S13/S14</f>
-        <v>11.808105835406938</v>
-      </c>
-      <c r="T15" s="20">
-        <f t="shared" ref="T15" si="23">T13/T14</f>
-        <v>12.057378691591538</v>
-      </c>
-      <c r="U15" s="20">
-        <f t="shared" ref="U15" si="24">U13/U14</f>
-        <v>12.310169135932291</v>
-      </c>
-      <c r="W15" s="21" t="s">
+      <c r="R17" s="20">
+        <f t="shared" ref="R17" si="22">R15/R16</f>
+        <v>11.501111453207152</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" ref="S17" si="23">S15/S16</f>
+        <v>11.685129236458463</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" ref="T17" si="24">T15/T16</f>
+        <v>11.872091304241799</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" ref="U17" si="25">U15/U16</f>
+        <v>12.062044765109668</v>
+      </c>
+      <c r="W17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X17" s="26">
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
-      <c r="W16" s="21" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X18" s="26">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24" t="s">
+    <row r="19" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="25">
-        <f>O3/N3-1</f>
+      <c r="O19" s="25">
+        <f>O5/N5-1</f>
         <v>0.33258306538049309</v>
       </c>
-      <c r="P17" s="25">
-        <f>P3/O3-1</f>
+      <c r="P19" s="25">
+        <f>P5/O5-1</f>
         <v>0.52978364031207281</v>
       </c>
-      <c r="Q17" s="25">
-        <f t="shared" ref="Q17:U17" si="25">Q3/P3-1</f>
+      <c r="Q19" s="25">
+        <f t="shared" ref="Q19:U19" si="26">Q5/P5-1</f>
         <v>0.2092661331875203</v>
       </c>
-      <c r="R17" s="25">
-        <f t="shared" si="25"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="S17" s="25">
-        <f t="shared" si="25"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="T17" s="25">
-        <f t="shared" si="25"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="U17" s="25">
-        <f t="shared" si="25"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="W17" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="X17" s="26">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="26">
-        <f>C5/C3</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="26" t="e">
-        <f t="shared" ref="D18:J18" si="26">D5/D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="26" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="26" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="26">
+      <c r="R19" s="25">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="H18" s="26" t="e">
+      <c r="S19" s="25">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="25">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="X19" s="26">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="26">
+        <f>C7/C5</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="26" t="e">
+        <f t="shared" ref="D20:J20" si="27">D7/D5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="26" t="e">
-        <f t="shared" si="26"/>
+      <c r="E20" s="26" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="26" t="e">
-        <f t="shared" si="26"/>
+      <c r="F20" s="26" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="26" t="e">
-        <f>L5/L3</f>
+      <c r="G20" s="26">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="26" t="e">
+        <f>L7/L5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="26" t="e">
-        <f>M5/M3</f>
+      <c r="M20" s="26" t="e">
+        <f>M7/M5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="26">
-        <f>N5/N3</f>
+      <c r="N20" s="26">
+        <f>N7/N5</f>
         <v>0.84996784565916395</v>
       </c>
-      <c r="O18" s="26">
-        <f t="shared" ref="O18:P18" si="27">O5/O3</f>
+      <c r="O20" s="26">
+        <f t="shared" ref="O20:P20" si="28">O7/O5</f>
         <v>0.87907986809297844</v>
       </c>
-      <c r="P18" s="26">
-        <f t="shared" si="27"/>
+      <c r="P20" s="26">
+        <f t="shared" si="28"/>
         <v>0.83222746821733151</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q20" s="26">
         <v>0.85</v>
       </c>
-      <c r="R18" s="26">
+      <c r="R20" s="26">
         <v>0.85</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S20" s="26">
         <v>0.85</v>
       </c>
-      <c r="T18" s="26">
+      <c r="T20" s="26">
         <v>0.85</v>
       </c>
-      <c r="U18" s="26">
+      <c r="U20" s="26">
         <v>0.85</v>
       </c>
-      <c r="W18" s="21" t="s">
+      <c r="W20" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="X18" s="21">
-        <f>NPV(X17,Q13:XFD13)+Main!K5-Main!K6</f>
-        <v>9309.2462054242424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26">
-        <f>O7/N7-1</f>
-        <v>6.7567567567567544E-2</v>
-      </c>
-      <c r="P19" s="26">
-        <f>P7/O7-1</f>
-        <v>0.15770906827142572</v>
-      </c>
-      <c r="Q19" s="26">
-        <f t="shared" ref="Q19:U19" si="28">Q7/P7-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="R19" s="26">
-        <f t="shared" si="28"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="S19" s="26">
-        <f t="shared" si="28"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="T19" s="26">
-        <f t="shared" si="28"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="U19" s="26">
-        <f t="shared" si="28"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="W19" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="20">
-        <f>X18/Main!K3</f>
-        <v>94.724566332145287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="X20" s="26">
-        <f>X19/Main!K2-1</f>
-        <v>4.9202853957590804</v>
+      <c r="X20" s="21">
+        <f>NPV(X19,Q15:XFD15)+Main!K5-Main!K6</f>
+        <v>9143.5320303934659</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26">
+        <f>O9/N9-1</f>
+        <v>6.7567567567567544E-2</v>
+      </c>
+      <c r="P21" s="26">
+        <f>P9/O9-1</f>
+        <v>0.15770906827142572</v>
+      </c>
+      <c r="Q21" s="26">
+        <f t="shared" ref="Q21:U21" si="29">Q9/P9-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R21" s="26">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="26">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="26">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="26">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="X21" s="20">
+        <f>X20/Main!K3</f>
+        <v>93.038371443913277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="26">
+        <f>X21/Main!K2-1</f>
+        <v>3.2290168838142401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="21">
-        <f>P22-P35</f>
+      <c r="P23" s="21">
+        <f>P24-P37</f>
         <v>217.70000000000005</v>
       </c>
-      <c r="Q21" s="21">
-        <f>P21+Q13</f>
+      <c r="Q23" s="21">
+        <f>P23+Q15</f>
         <v>1294.2311999999999</v>
       </c>
-      <c r="R21" s="21">
-        <f t="shared" ref="R21:U21" si="29">Q21+R13</f>
-        <v>2393.8078591999997</v>
-      </c>
-      <c r="S21" s="21">
-        <f t="shared" si="29"/>
-        <v>3516.7587241471992</v>
-      </c>
-      <c r="T21" s="21">
-        <f t="shared" si="29"/>
-        <v>4663.4154377175546</v>
-      </c>
-      <c r="U21" s="21">
-        <f t="shared" si="29"/>
-        <v>5834.1125225447158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="21" t="s">
+      <c r="R23" s="21">
+        <f t="shared" ref="R23:U23" si="30">Q23+R15</f>
+        <v>2387.9868992000002</v>
+      </c>
+      <c r="S23" s="21">
+        <f t="shared" si="30"/>
+        <v>3499.2426895871999</v>
+      </c>
+      <c r="T23" s="21">
+        <f t="shared" si="30"/>
+        <v>4628.2785726205948</v>
+      </c>
+      <c r="U23" s="21">
+        <f t="shared" si="30"/>
+        <v>5775.3790297825244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P24" s="21">
         <f>1103+251.8</f>
         <v>1354.8</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="21">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="P24" s="21">
-        <v>750</v>
-      </c>
-    </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P25" s="21">
-        <v>276.3</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="21">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="21">
+        <v>276.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P28" s="21">
         <f>90.5</f>
         <v>90.5</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="21">
-        <v>340.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P28" s="21">
-        <v>148.30000000000001</v>
-      </c>
-    </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="21">
+        <v>340.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" s="21">
+        <v>148.30000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P31" s="21">
         <f>188+133+80</f>
         <v>401</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P30" s="21">
-        <f>SUM(P22:P29)</f>
-        <v>3963.2000000000007</v>
-      </c>
-    </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="P32" s="21">
-        <v>214.4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="P33" s="21">
-        <v>373.5</v>
+        <f>SUM(P24:P31)</f>
+        <v>3963.2000000000007</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="21">
+        <v>214.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P35" s="21">
+        <v>373.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P36" s="21">
         <f>130+325</f>
         <v>455</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="21" t="s">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P37" s="21">
         <f>1137.1</f>
         <v>1137.0999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="P36" s="21">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="P37" s="21">
-        <v>192.5</v>
-      </c>
-    </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P38" s="21">
-        <v>47.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P39" s="21">
-        <v>1.8</v>
+        <v>192.5</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P40" s="21">
-        <f>SUM(P32:P39)</f>
-        <v>2435.2000000000003</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P41" s="21">
-        <f>P30-P40</f>
-        <v>1528.0000000000005</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" s="21">
+        <f>SUM(P34:P41)</f>
+        <v>2435.2000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" s="21">
+        <f>P32-P42</f>
+        <v>1528.0000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="P42" s="21">
-        <f>P41+P40</f>
+      <c r="P44" s="21">
+        <f>P43+P42</f>
         <v>3963.2000000000007</v>
       </c>
     </row>
@@ -2538,6 +2800,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2564,16 +2827,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2853,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2607,21 +2870,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2634,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A26E37D-39D8-4DCA-A95F-E6EADC0FC071}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2657,7 +2920,7 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2665,7 +2928,7 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2681,7 +2944,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2696,22 +2959,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="28" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
@@ -2720,252 +2996,271 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C22">
+      <c r="C21" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C24" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C25">
         <v>2025</v>
       </c>
-      <c r="D22">
-        <f>C22+1</f>
+      <c r="D25">
+        <f>C25+1</f>
         <v>2026</v>
       </c>
-      <c r="E22">
-        <f t="shared" ref="E22:L22" si="0">D22+1</f>
+      <c r="E25">
+        <f t="shared" ref="E25:L25" si="0">D25+1</f>
         <v>2027</v>
       </c>
-      <c r="F22">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="H22">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="I22">
+      <c r="I25">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="J22">
+      <c r="J25">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="K22">
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="L22">
+      <c r="L25">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C26" s="21">
         <f>15000*0.8</f>
         <v>12000</v>
       </c>
-      <c r="D23" s="21">
-        <f>C23*1.01</f>
+      <c r="D26" s="21">
+        <f>C26*1.01</f>
         <v>12120</v>
       </c>
-      <c r="E23" s="21">
-        <f t="shared" ref="E23:L23" si="1">D23*1.01</f>
+      <c r="E26" s="21">
+        <f t="shared" ref="E26:L26" si="1">D26*1.01</f>
         <v>12241.2</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F26" s="21">
         <f t="shared" si="1"/>
         <v>12363.612000000001</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G26" s="21">
         <f t="shared" si="1"/>
         <v>12487.248120000002</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H26" s="21">
         <f t="shared" si="1"/>
         <v>12612.120601200002</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I26" s="21">
         <f t="shared" si="1"/>
         <v>12738.241807212002</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J26" s="21">
         <f t="shared" si="1"/>
         <v>12865.624225284122</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K26" s="21">
         <f t="shared" si="1"/>
         <v>12994.280467536963</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L26" s="21">
         <f t="shared" si="1"/>
         <v>13124.223272212332</v>
-      </c>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="21">
-        <f>C23*0.02</f>
-        <v>240</v>
-      </c>
-      <c r="D24" s="21">
-        <f t="shared" ref="D24:L24" si="2">D23*0.02</f>
-        <v>242.4</v>
-      </c>
-      <c r="E24" s="21">
-        <f t="shared" si="2"/>
-        <v>244.82400000000001</v>
-      </c>
-      <c r="F24" s="21">
-        <f t="shared" si="2"/>
-        <v>247.27224000000004</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="2"/>
-        <v>249.74496240000005</v>
-      </c>
-      <c r="H24" s="21">
-        <f t="shared" si="2"/>
-        <v>252.24241202400006</v>
-      </c>
-      <c r="I24" s="21">
-        <f t="shared" si="2"/>
-        <v>254.76483614424004</v>
-      </c>
-      <c r="J24" s="21">
-        <f t="shared" si="2"/>
-        <v>257.31248450568245</v>
-      </c>
-      <c r="K24" s="21">
-        <f t="shared" si="2"/>
-        <v>259.88560935073923</v>
-      </c>
-      <c r="L24" s="21">
-        <f t="shared" si="2"/>
-        <v>262.48446544424667</v>
-      </c>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="D25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="E25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="F25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="G25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="H25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="I25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="J25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="K25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="L25" s="21">
-        <v>3200000</v>
-      </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="21">
-        <f>C25*C24/1000000*0.85</f>
-        <v>652.79999999999995</v>
-      </c>
-      <c r="D26" s="21">
-        <f t="shared" ref="D26:L26" si="3">D25*D24/1000000*0.85</f>
-        <v>659.32799999999997</v>
-      </c>
-      <c r="E26" s="21">
-        <f t="shared" si="3"/>
-        <v>665.92127999999991</v>
-      </c>
-      <c r="F26" s="21">
-        <f t="shared" si="3"/>
-        <v>672.58049280000012</v>
-      </c>
-      <c r="G26" s="21">
-        <f t="shared" si="3"/>
-        <v>679.30629772800012</v>
-      </c>
-      <c r="H26" s="21">
-        <f t="shared" si="3"/>
-        <v>686.09936070528011</v>
-      </c>
-      <c r="I26" s="21">
-        <f t="shared" si="3"/>
-        <v>692.96035431233292</v>
-      </c>
-      <c r="J26" s="21">
-        <f t="shared" si="3"/>
-        <v>699.88995785545626</v>
-      </c>
-      <c r="K26" s="21">
-        <f t="shared" si="3"/>
-        <v>706.88885743401067</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" si="3"/>
-        <v>713.95774600835091</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
     </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="21">
+        <f>C26*0.02</f>
+        <v>240</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" ref="D27:L27" si="2">D26*0.02</f>
+        <v>242.4</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" si="2"/>
+        <v>244.82400000000001</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="2"/>
+        <v>247.27224000000004</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="2"/>
+        <v>249.74496240000005</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="2"/>
+        <v>252.24241202400006</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="2"/>
+        <v>254.76483614424004</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="2"/>
+        <v>257.31248450568245</v>
+      </c>
+      <c r="K27" s="21">
+        <f t="shared" si="2"/>
+        <v>259.88560935073923</v>
+      </c>
+      <c r="L27" s="21">
+        <f t="shared" si="2"/>
+        <v>262.48446544424667</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+    </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="D28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="E28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="F28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="G28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="I28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="J28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="K28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="L28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="21">
+        <f>C28*C27/1000000*0.85</f>
+        <v>652.79999999999995</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" ref="D29:L29" si="3">D28*D27/1000000*0.85</f>
+        <v>659.32799999999997</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="3"/>
+        <v>665.92127999999991</v>
+      </c>
+      <c r="F29" s="21">
+        <f t="shared" si="3"/>
+        <v>672.58049280000012</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="3"/>
+        <v>679.30629772800012</v>
+      </c>
+      <c r="H29" s="21">
+        <f t="shared" si="3"/>
+        <v>686.09936070528011</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="3"/>
+        <v>692.96035431233292</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="3"/>
+        <v>699.88995785545626</v>
+      </c>
+      <c r="K29" s="21">
+        <f t="shared" si="3"/>
+        <v>706.88885743401067</v>
+      </c>
+      <c r="L29" s="21">
+        <f t="shared" si="3"/>
+        <v>713.95774600835091</v>
+      </c>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="29">
-        <f>NPV(C28,C26:XFD26)</f>
+      <c r="C32" s="29">
+        <f>NPV(C31,C29:XFD29)</f>
         <v>4554.177364201797</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2973,5 +3268,305 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F4D7F899-E715-4F27-9DC1-97C1D482042E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC812AF-8CB0-4381-BE7D-253674B7F7B2}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1F820F37-225C-40DA-963F-E4D8CD606926}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5602C2-867C-44AB-9B8C-1BF074121D29}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{536D2D40-8F15-4BE5-83F8-589C59FF31E4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C2C050-9F2A-4A08-A168-79D717BC14CA}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7DE3D7C5-89AC-474D-9197-196E070A0225}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2230F2A4-9ADA-433D-BCB4-1FF4E813C47E}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B86D2320-D43C-4DF7-A258-66ED9E14EB8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CBC325-D6CC-4A3E-82E6-653046984120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16D56C1-7AC0-4805-93C0-C7CE3F04C567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="270" windowWidth="20805" windowHeight="15015" activeTab="4" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
+    <workbookView xWindow="1140" yWindow="540" windowWidth="22140" windowHeight="14805" activeTab="1" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -476,12 +476,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1400,11 +1394,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1A893-8ADE-4729-B205-F45738EE77EA}">
   <dimension ref="A1:DI44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1567,20 +1561,19 @@
         <v>2300</v>
       </c>
       <c r="R5" s="24">
-        <f>Q5*1</f>
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="S5" s="24">
         <f t="shared" ref="S5:U5" si="2">R5*1</f>
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="T5" s="24">
         <f t="shared" si="2"/>
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="U5" s="24">
         <f t="shared" si="2"/>
-        <v>2300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:113" x14ac:dyDescent="0.2">
@@ -1602,19 +1595,19 @@
       </c>
       <c r="R6" s="21">
         <f t="shared" ref="R6:U6" si="3">R5*(1-R20)</f>
-        <v>345.00000000000006</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="3"/>
-        <v>345.00000000000006</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="T6" s="21">
         <f t="shared" si="3"/>
-        <v>345.00000000000006</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="U6" s="21">
         <f t="shared" si="3"/>
-        <v>345.00000000000006</v>
+        <v>150.00000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:113" x14ac:dyDescent="0.2">
@@ -1647,19 +1640,19 @@
       </c>
       <c r="R7" s="21">
         <f t="shared" ref="R7" si="6">R5-R6</f>
-        <v>1955</v>
+        <v>850</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" ref="S7" si="7">S5-S6</f>
-        <v>1955</v>
+        <v>850</v>
       </c>
       <c r="T7" s="21">
         <f t="shared" ref="T7" si="8">T5-T6</f>
-        <v>1955</v>
+        <v>850</v>
       </c>
       <c r="U7" s="21">
         <f t="shared" ref="U7" si="9">U5-U6</f>
-        <v>1955</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:113" x14ac:dyDescent="0.2">
@@ -1785,19 +1778,19 @@
       </c>
       <c r="R11" s="21">
         <f t="shared" si="12"/>
-        <v>1341.31</v>
+        <v>236.30999999999995</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="12"/>
-        <v>1341.31</v>
+        <v>236.30999999999995</v>
       </c>
       <c r="T11" s="21">
         <f t="shared" si="12"/>
-        <v>1341.31</v>
+        <v>236.30999999999995</v>
       </c>
       <c r="U11" s="21">
         <f t="shared" si="12"/>
-        <v>1341.31</v>
+        <v>236.30999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:113" x14ac:dyDescent="0.2">
@@ -1823,15 +1816,15 @@
       </c>
       <c r="S12" s="21">
         <f t="shared" si="13"/>
-        <v>47.759737984000004</v>
+        <v>30.079737983999998</v>
       </c>
       <c r="T12" s="21">
         <f t="shared" si="13"/>
-        <v>69.984853791744001</v>
+        <v>34.341973791744003</v>
       </c>
       <c r="U12" s="21">
         <f t="shared" si="13"/>
-        <v>92.565571452411902</v>
+        <v>38.672405372411902</v>
       </c>
     </row>
     <row r="13" spans="1:113" x14ac:dyDescent="0.2">
@@ -1864,19 +1857,19 @@
       </c>
       <c r="R13" s="21">
         <f t="shared" si="14"/>
-        <v>1367.194624</v>
+        <v>262.19462399999992</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="14"/>
-        <v>1389.0697379839999</v>
+        <v>266.38973798399996</v>
       </c>
       <c r="T13" s="21">
         <f t="shared" si="14"/>
-        <v>1411.2948537917439</v>
+        <v>270.65197379174396</v>
       </c>
       <c r="U13" s="21">
         <f t="shared" si="14"/>
-        <v>1433.8755714524118</v>
+        <v>274.98240537241185</v>
       </c>
     </row>
     <row r="14" spans="1:113" x14ac:dyDescent="0.2">
@@ -1898,19 +1891,19 @@
       </c>
       <c r="R14" s="21">
         <f t="shared" ref="R14:U14" si="15">R13*0.2</f>
-        <v>273.4389248</v>
+        <v>52.438924799999988</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="15"/>
-        <v>277.81394759680001</v>
+        <v>53.277947596799997</v>
       </c>
       <c r="T14" s="21">
         <f t="shared" si="15"/>
-        <v>282.25897075834877</v>
+        <v>54.130394758348793</v>
       </c>
       <c r="U14" s="21">
         <f t="shared" si="15"/>
-        <v>286.77511429048235</v>
+        <v>54.996481074482375</v>
       </c>
     </row>
     <row r="15" spans="1:113" x14ac:dyDescent="0.2">
@@ -1943,387 +1936,387 @@
       </c>
       <c r="R15" s="21">
         <f t="shared" si="16"/>
-        <v>1093.7556992</v>
+        <v>209.75569919999992</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="16"/>
-        <v>1111.2557903871998</v>
+        <v>213.11179038719996</v>
       </c>
       <c r="T15" s="21">
         <f t="shared" si="16"/>
-        <v>1129.0358830333951</v>
+        <v>216.52157903339517</v>
       </c>
       <c r="U15" s="21">
         <f t="shared" si="16"/>
-        <v>1147.1004571619294</v>
+        <v>219.98592429792947</v>
       </c>
       <c r="V15" s="21">
         <f>U15*(1+$X$18)</f>
-        <v>1112.6874434470715</v>
+        <v>217.78606505495017</v>
       </c>
       <c r="W15" s="21">
         <f t="shared" ref="W15:CH15" si="17">V15*(1+$X$18)</f>
-        <v>1079.3068201436593</v>
+        <v>215.60820440440068</v>
       </c>
       <c r="X15" s="21">
         <f t="shared" si="17"/>
-        <v>1046.9276155393495</v>
+        <v>213.45212236035667</v>
       </c>
       <c r="Y15" s="21">
         <f t="shared" si="17"/>
-        <v>1015.519787073169</v>
+        <v>211.3176011367531</v>
       </c>
       <c r="Z15" s="21">
         <f t="shared" si="17"/>
-        <v>985.05419346097392</v>
+        <v>209.20442512538557</v>
       </c>
       <c r="AA15" s="21">
         <f t="shared" si="17"/>
-        <v>955.50256765714471</v>
+        <v>207.1123808741317</v>
       </c>
       <c r="AB15" s="21">
         <f t="shared" si="17"/>
-        <v>926.83749062743038</v>
+        <v>205.0412570653904</v>
       </c>
       <c r="AC15" s="21">
         <f t="shared" si="17"/>
-        <v>899.0323659086074</v>
+        <v>202.99084449473648</v>
       </c>
       <c r="AD15" s="21">
         <f t="shared" si="17"/>
-        <v>872.06139493134913</v>
+        <v>200.96093604978913</v>
       </c>
       <c r="AE15" s="21">
         <f t="shared" si="17"/>
-        <v>845.89955308340859</v>
+        <v>198.95132668929122</v>
       </c>
       <c r="AF15" s="21">
         <f t="shared" si="17"/>
-        <v>820.52256649090634</v>
+        <v>196.96181342239831</v>
       </c>
       <c r="AG15" s="21">
         <f t="shared" si="17"/>
-        <v>795.90688949617913</v>
+        <v>194.99219528817432</v>
       </c>
       <c r="AH15" s="21">
         <f t="shared" si="17"/>
-        <v>772.0296828112937</v>
+        <v>193.04227333529258</v>
       </c>
       <c r="AI15" s="21">
         <f t="shared" si="17"/>
-        <v>748.86879232695492</v>
+        <v>191.11185060193964</v>
       </c>
       <c r="AJ15" s="21">
         <f t="shared" si="17"/>
-        <v>726.40272855714625</v>
+        <v>189.20073209592024</v>
       </c>
       <c r="AK15" s="21">
         <f t="shared" si="17"/>
-        <v>704.61064670043186</v>
+        <v>187.30872477496104</v>
       </c>
       <c r="AL15" s="21">
         <f t="shared" si="17"/>
-        <v>683.47232729941891</v>
+        <v>185.43563752721141</v>
       </c>
       <c r="AM15" s="21">
         <f t="shared" si="17"/>
-        <v>662.96815748043628</v>
+        <v>183.58128115193929</v>
       </c>
       <c r="AN15" s="21">
         <f t="shared" si="17"/>
-        <v>643.07911275602316</v>
+        <v>181.7454683404199</v>
       </c>
       <c r="AO15" s="21">
         <f t="shared" si="17"/>
-        <v>623.78673937334247</v>
+        <v>179.9280136570157</v>
       </c>
       <c r="AP15" s="21">
         <f t="shared" si="17"/>
-        <v>605.07313719214221</v>
+        <v>178.12873352044554</v>
       </c>
       <c r="AQ15" s="21">
         <f t="shared" si="17"/>
-        <v>586.92094307637797</v>
+        <v>176.34744618524107</v>
       </c>
       <c r="AR15" s="21">
         <f t="shared" si="17"/>
-        <v>569.31331478408663</v>
+        <v>174.58397172338866</v>
       </c>
       <c r="AS15" s="21">
         <f t="shared" si="17"/>
-        <v>552.23391534056407</v>
+        <v>172.83813200615478</v>
       </c>
       <c r="AT15" s="21">
         <f t="shared" si="17"/>
-        <v>535.66689788034716</v>
+        <v>171.10975068609324</v>
       </c>
       <c r="AU15" s="21">
         <f t="shared" si="17"/>
-        <v>519.59689094393673</v>
+        <v>169.3986531792323</v>
       </c>
       <c r="AV15" s="21">
         <f t="shared" si="17"/>
-        <v>504.00898421561863</v>
+        <v>167.70466664743998</v>
       </c>
       <c r="AW15" s="21">
         <f t="shared" si="17"/>
-        <v>488.88871468915005</v>
+        <v>166.02761998096557</v>
       </c>
       <c r="AX15" s="21">
         <f t="shared" si="17"/>
-        <v>474.22205324847556</v>
+        <v>164.36734378115591</v>
       </c>
       <c r="AY15" s="21">
         <f t="shared" si="17"/>
-        <v>459.99539165102129</v>
+        <v>162.72367034334434</v>
       </c>
       <c r="AZ15" s="21">
         <f t="shared" si="17"/>
-        <v>446.19552990149066</v>
+        <v>161.09643363991088</v>
       </c>
       <c r="BA15" s="21">
         <f t="shared" si="17"/>
-        <v>432.80966400444595</v>
+        <v>159.48546930351176</v>
       </c>
       <c r="BB15" s="21">
         <f t="shared" si="17"/>
-        <v>419.82537408431256</v>
+        <v>157.89061461047663</v>
       </c>
       <c r="BC15" s="21">
         <f t="shared" si="17"/>
-        <v>407.23061286178319</v>
+        <v>156.31170846437186</v>
       </c>
       <c r="BD15" s="21">
         <f t="shared" si="17"/>
-        <v>395.0136944759297</v>
+        <v>154.74859137972814</v>
       </c>
       <c r="BE15" s="21">
         <f t="shared" si="17"/>
-        <v>383.16328364165179</v>
+        <v>153.20110546593085</v>
       </c>
       <c r="BF15" s="21">
         <f t="shared" si="17"/>
-        <v>371.66838513240225</v>
+        <v>151.66909441127154</v>
       </c>
       <c r="BG15" s="21">
         <f t="shared" si="17"/>
-        <v>360.51833357843014</v>
+        <v>150.15240346715882</v>
       </c>
       <c r="BH15" s="21">
         <f t="shared" si="17"/>
-        <v>349.70278357107725</v>
+        <v>148.65087943248724</v>
       </c>
       <c r="BI15" s="21">
         <f t="shared" si="17"/>
-        <v>339.21170006394493</v>
+        <v>147.16437063816238</v>
       </c>
       <c r="BJ15" s="21">
         <f t="shared" si="17"/>
-        <v>329.03534906202657</v>
+        <v>145.69272693178075</v>
       </c>
       <c r="BK15" s="21">
         <f t="shared" si="17"/>
-        <v>319.16428859016577</v>
+        <v>144.23579966246294</v>
       </c>
       <c r="BL15" s="21">
         <f t="shared" si="17"/>
-        <v>309.58935993246081</v>
+        <v>142.79344166583832</v>
       </c>
       <c r="BM15" s="21">
         <f t="shared" si="17"/>
-        <v>300.30167913448696</v>
+        <v>141.36550724917993</v>
       </c>
       <c r="BN15" s="21">
         <f t="shared" si="17"/>
-        <v>291.29262876045232</v>
+        <v>139.95185217668813</v>
       </c>
       <c r="BO15" s="21">
         <f t="shared" si="17"/>
-        <v>282.55384989763871</v>
+        <v>138.55233365492126</v>
       </c>
       <c r="BP15" s="21">
         <f t="shared" si="17"/>
-        <v>274.07723440070953</v>
+        <v>137.16681031837203</v>
       </c>
       <c r="BQ15" s="21">
         <f t="shared" si="17"/>
-        <v>265.85491736868823</v>
+        <v>135.79514221518832</v>
       </c>
       <c r="BR15" s="21">
         <f t="shared" si="17"/>
-        <v>257.8792698476276</v>
+        <v>134.43719079303645</v>
       </c>
       <c r="BS15" s="21">
         <f t="shared" si="17"/>
-        <v>250.14289175219875</v>
+        <v>133.09281888510608</v>
       </c>
       <c r="BT15" s="21">
         <f t="shared" si="17"/>
-        <v>242.63860499963278</v>
+        <v>131.76189069625502</v>
       </c>
       <c r="BU15" s="21">
         <f t="shared" si="17"/>
-        <v>235.35944684964377</v>
+        <v>130.44427178929246</v>
       </c>
       <c r="BV15" s="21">
         <f t="shared" si="17"/>
-        <v>228.29866344415444</v>
+        <v>129.13982907139953</v>
       </c>
       <c r="BW15" s="21">
         <f t="shared" si="17"/>
-        <v>221.4497035408298</v>
+        <v>127.84843078068553</v>
       </c>
       <c r="BX15" s="21">
         <f t="shared" si="17"/>
-        <v>214.8062124346049</v>
+        <v>126.56994647287867</v>
       </c>
       <c r="BY15" s="21">
         <f t="shared" si="17"/>
-        <v>208.36202606156675</v>
+        <v>125.30424700814989</v>
       </c>
       <c r="BZ15" s="21">
         <f t="shared" si="17"/>
-        <v>202.11116527971976</v>
+        <v>124.05120453806839</v>
       </c>
       <c r="CA15" s="21">
         <f t="shared" si="17"/>
-        <v>196.04783032132815</v>
+        <v>122.81069249268771</v>
       </c>
       <c r="CB15" s="21">
         <f t="shared" si="17"/>
-        <v>190.16639541168831</v>
+        <v>121.58258556776083</v>
       </c>
       <c r="CC15" s="21">
         <f t="shared" si="17"/>
-        <v>184.46140354933766</v>
+        <v>120.36675971208322</v>
       </c>
       <c r="CD15" s="21">
         <f t="shared" si="17"/>
-        <v>178.92756144285752</v>
+        <v>119.1630921149624</v>
       </c>
       <c r="CE15" s="21">
         <f t="shared" si="17"/>
-        <v>173.55973459957178</v>
+        <v>117.97146119381277</v>
       </c>
       <c r="CF15" s="21">
         <f t="shared" si="17"/>
-        <v>168.35294256158463</v>
+        <v>116.79174658187465</v>
       </c>
       <c r="CG15" s="21">
         <f t="shared" si="17"/>
-        <v>163.30235428473708</v>
+        <v>115.6238291160559</v>
       </c>
       <c r="CH15" s="21">
         <f t="shared" si="17"/>
-        <v>158.40328365619496</v>
+        <v>114.46759082489534</v>
       </c>
       <c r="CI15" s="21">
         <f t="shared" ref="CI15:DI15" si="18">CH15*(1+$X$18)</f>
-        <v>153.65118514650911</v>
+        <v>113.32291491664638</v>
       </c>
       <c r="CJ15" s="21">
         <f t="shared" si="18"/>
-        <v>149.04164959211383</v>
+        <v>112.18968576747992</v>
       </c>
       <c r="CK15" s="21">
         <f t="shared" si="18"/>
-        <v>144.5704001043504</v>
+        <v>111.06778890980512</v>
       </c>
       <c r="CL15" s="21">
         <f t="shared" si="18"/>
-        <v>140.23328810121987</v>
+        <v>109.95711102070706</v>
       </c>
       <c r="CM15" s="21">
         <f t="shared" si="18"/>
-        <v>136.02628945818327</v>
+        <v>108.85753991049999</v>
       </c>
       <c r="CN15" s="21">
         <f t="shared" si="18"/>
-        <v>131.94550077443776</v>
+        <v>107.768964511395</v>
       </c>
       <c r="CO15" s="21">
         <f t="shared" si="18"/>
-        <v>127.98713575120462</v>
+        <v>106.69127486628105</v>
       </c>
       <c r="CP15" s="21">
         <f t="shared" si="18"/>
-        <v>124.14752167866848</v>
+        <v>105.62436211761823</v>
       </c>
       <c r="CQ15" s="21">
         <f t="shared" si="18"/>
-        <v>120.42309602830842</v>
+        <v>104.56811849644205</v>
       </c>
       <c r="CR15" s="21">
         <f t="shared" si="18"/>
-        <v>116.81040314745917</v>
+        <v>103.52243731147763</v>
       </c>
       <c r="CS15" s="21">
         <f t="shared" si="18"/>
-        <v>113.30609105303539</v>
+        <v>102.48721293836286</v>
       </c>
       <c r="CT15" s="21">
         <f t="shared" si="18"/>
-        <v>109.90690832144432</v>
+        <v>101.46234080897923</v>
       </c>
       <c r="CU15" s="21">
         <f t="shared" si="18"/>
-        <v>106.60970107180098</v>
+        <v>100.44771740088945</v>
       </c>
       <c r="CV15" s="21">
         <f t="shared" si="18"/>
-        <v>103.41141003964695</v>
+        <v>99.443240226880548</v>
       </c>
       <c r="CW15" s="21">
         <f t="shared" si="18"/>
-        <v>100.30906773845754</v>
+        <v>98.448807824611748</v>
       </c>
       <c r="CX15" s="21">
         <f t="shared" si="18"/>
-        <v>97.299795706303811</v>
+        <v>97.464319746365632</v>
       </c>
       <c r="CY15" s="21">
         <f t="shared" si="18"/>
-        <v>94.380801835114696</v>
+        <v>96.489676548901969</v>
       </c>
       <c r="CZ15" s="21">
         <f t="shared" si="18"/>
-        <v>91.549377780061249</v>
+        <v>95.524779783412953</v>
       </c>
       <c r="DA15" s="21">
         <f t="shared" si="18"/>
-        <v>88.802896446659403</v>
+        <v>94.56953198557882</v>
       </c>
       <c r="DB15" s="21">
         <f t="shared" si="18"/>
-        <v>86.13880955325962</v>
+        <v>93.623836665723033</v>
       </c>
       <c r="DC15" s="21">
         <f t="shared" si="18"/>
-        <v>83.554645266661822</v>
+        <v>92.687598299065797</v>
       </c>
       <c r="DD15" s="21">
         <f t="shared" si="18"/>
-        <v>81.048005908661963</v>
+        <v>91.760722316075132</v>
       </c>
       <c r="DE15" s="21">
         <f t="shared" si="18"/>
-        <v>78.616565731402105</v>
+        <v>90.843115092914374</v>
       </c>
       <c r="DF15" s="21">
         <f t="shared" si="18"/>
-        <v>76.258068759460045</v>
+        <v>89.934683941985227</v>
       </c>
       <c r="DG15" s="21">
         <f t="shared" si="18"/>
-        <v>73.970326696676238</v>
+        <v>89.035337102565379</v>
       </c>
       <c r="DH15" s="21">
         <f t="shared" si="18"/>
-        <v>71.751216895775954</v>
+        <v>88.144983731539725</v>
       </c>
       <c r="DI15" s="21">
         <f t="shared" si="18"/>
-        <v>69.598680388902679</v>
+        <v>87.263533894224324</v>
       </c>
     </row>
     <row r="16" spans="1:113" x14ac:dyDescent="0.2">
@@ -2390,19 +2383,19 @@
       </c>
       <c r="R17" s="20">
         <f t="shared" ref="R17" si="22">R15/R16</f>
-        <v>11.501111453207152</v>
+        <v>2.2056330094637215</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" ref="S17" si="23">S15/S16</f>
-        <v>11.685129236458463</v>
+        <v>2.2409231376151415</v>
       </c>
       <c r="T17" s="20">
         <f t="shared" ref="T17" si="24">T15/T16</f>
-        <v>11.872091304241799</v>
+        <v>2.2767779078169839</v>
       </c>
       <c r="U17" s="20">
         <f t="shared" ref="U17" si="25">U15/U16</f>
-        <v>12.062044765109668</v>
+        <v>2.3132063543420558</v>
       </c>
       <c r="W17" s="21" t="s">
         <v>53</v>
@@ -2416,7 +2409,7 @@
         <v>54</v>
       </c>
       <c r="X18" s="26">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -2438,7 +2431,7 @@
       </c>
       <c r="R19" s="25">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-0.56521739130434789</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="26"/>
@@ -2534,8 +2527,8 @@
         <v>56</v>
       </c>
       <c r="X20" s="21">
-        <f>NPV(X19,Q15:XFD15)+Main!K5-Main!K6</f>
-        <v>9143.5320303934659</v>
+        <f>NPV(X19,Q15:XFD15)+Main!K5-Main!K6+elevidys!C32</f>
+        <v>6400.0919928067269</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2586,13 +2579,13 @@
       </c>
       <c r="X21" s="20">
         <f>X20/Main!K3</f>
-        <v>93.038371443913277</v>
+        <v>65.122989029037583</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="X22" s="26">
         <f>X21/Main!K2-1</f>
-        <v>3.2290168838142401</v>
+        <v>1.9601358649562539</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2609,19 +2602,19 @@
       </c>
       <c r="R23" s="21">
         <f t="shared" ref="R23:U23" si="30">Q23+R15</f>
-        <v>2387.9868992000002</v>
+        <v>1503.9868991999999</v>
       </c>
       <c r="S23" s="21">
         <f t="shared" si="30"/>
-        <v>3499.2426895871999</v>
+        <v>1717.0986895871999</v>
       </c>
       <c r="T23" s="21">
         <f t="shared" si="30"/>
-        <v>4628.2785726205948</v>
+        <v>1933.6202686205952</v>
       </c>
       <c r="U23" s="21">
         <f t="shared" si="30"/>
-        <v>5775.3790297825244</v>
+        <v>2153.6061929185248</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2899,7 +2892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A26E37D-39D8-4DCA-A95F-E6EADC0FC071}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F32" sqref="F32:G32"/>
     </sheetView>
   </sheetViews>

--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16D56C1-7AC0-4805-93C0-C7CE3F04C567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B0568C-3A71-4B8C-AE0C-6C25FBA8BB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="540" windowWidth="22140" windowHeight="14805" activeTab="1" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
+    <workbookView xWindow="2520" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{DC529969-0FFC-4849-AB27-3C9B9981265E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
   <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1395,10 +1395,10 @@
   <dimension ref="A1:DI44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U25" sqref="U25"/>
+      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2449,7 +2449,7 @@
         <v>55</v>
       </c>
       <c r="X19" s="26">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="X20" s="21">
         <f>NPV(X19,Q15:XFD15)+Main!K5-Main!K6+elevidys!C32</f>
-        <v>6400.0919928067269</v>
+        <v>4891.1877390474529</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
@@ -2579,13 +2579,13 @@
       </c>
       <c r="X21" s="20">
         <f>X20/Main!K3</f>
-        <v>65.122989029037583</v>
+        <v>49.769404225276034</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="X22" s="26">
         <f>X21/Main!K2-1</f>
-        <v>1.9601358649562539</v>
+        <v>1.2622456466034562</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -2893,7 +2893,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:G32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3038,6 +3038,18 @@
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
+      <c r="M25">
+        <f t="shared" ref="M25" si="1">L25+1</f>
+        <v>2035</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25" si="2">M25+1</f>
+        <v>2036</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25" si="3">N25+1</f>
+        <v>2037</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -3052,40 +3064,49 @@
         <v>12120</v>
       </c>
       <c r="E26" s="21">
-        <f t="shared" ref="E26:L26" si="1">D26*1.01</f>
+        <f t="shared" ref="E26:L26" si="4">D26*1.01</f>
         <v>12241.2</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12363.612000000001</v>
       </c>
       <c r="G26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12487.248120000002</v>
       </c>
       <c r="H26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12612.120601200002</v>
       </c>
       <c r="I26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12738.241807212002</v>
       </c>
       <c r="J26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12865.624225284122</v>
       </c>
       <c r="K26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12994.280467536963</v>
       </c>
       <c r="L26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13124.223272212332</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
+      <c r="M26" s="21">
+        <f t="shared" ref="M26" si="5">L26*1.01</f>
+        <v>13255.465504934455</v>
+      </c>
+      <c r="N26" s="21">
+        <f t="shared" ref="N26" si="6">M26*1.01</f>
+        <v>13388.0201599838</v>
+      </c>
+      <c r="O26" s="21">
+        <f t="shared" ref="O26" si="7">N26*1.01</f>
+        <v>13521.900361583639</v>
+      </c>
       <c r="P26" s="21"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.2">
@@ -3097,44 +3118,53 @@
         <v>240</v>
       </c>
       <c r="D27" s="21">
-        <f t="shared" ref="D27:L27" si="2">D26*0.02</f>
+        <f t="shared" ref="D27:L27" si="8">D26*0.02</f>
         <v>242.4</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>244.82400000000001</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>247.27224000000004</v>
       </c>
       <c r="G27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>249.74496240000005</v>
       </c>
       <c r="H27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>252.24241202400006</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>254.76483614424004</v>
       </c>
       <c r="J27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>257.31248450568245</v>
       </c>
       <c r="K27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>259.88560935073923</v>
       </c>
       <c r="L27" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>262.48446544424667</v>
       </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
+      <c r="M27" s="21">
+        <f t="shared" ref="M27:O27" si="9">M26*0.02</f>
+        <v>265.10931009868909</v>
+      </c>
+      <c r="N27" s="21">
+        <f t="shared" si="9"/>
+        <v>267.76040319967603</v>
+      </c>
+      <c r="O27" s="21">
+        <f t="shared" si="9"/>
+        <v>270.43800723167277</v>
+      </c>
       <c r="P27" s="21"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
@@ -3171,9 +3201,15 @@
       <c r="L28" s="21">
         <v>3200000</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="M28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="N28" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="O28" s="21">
+        <v>3200000</v>
+      </c>
       <c r="P28" s="21"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
@@ -3185,44 +3221,53 @@
         <v>652.79999999999995</v>
       </c>
       <c r="D29" s="21">
-        <f t="shared" ref="D29:L29" si="3">D28*D27/1000000*0.85</f>
+        <f t="shared" ref="D29:L29" si="10">D28*D27/1000000*0.85</f>
         <v>659.32799999999997</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>665.92127999999991</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>672.58049280000012</v>
       </c>
       <c r="G29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>679.30629772800012</v>
       </c>
       <c r="H29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>686.09936070528011</v>
       </c>
       <c r="I29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>692.96035431233292</v>
       </c>
       <c r="J29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>699.88995785545626</v>
       </c>
       <c r="K29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>706.88885743401067</v>
       </c>
       <c r="L29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>713.95774600835091</v>
       </c>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
+      <c r="M29" s="21">
+        <f t="shared" ref="M29:O29" si="11">M28*M27/1000000*0.85</f>
+        <v>721.0973234684343</v>
+      </c>
+      <c r="N29" s="21">
+        <f t="shared" si="11"/>
+        <v>728.30829670311891</v>
+      </c>
+      <c r="O29" s="21">
+        <f t="shared" si="11"/>
+        <v>735.59137967014988</v>
+      </c>
       <c r="P29" s="21"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
@@ -3238,8 +3283,8 @@
         <v>56</v>
       </c>
       <c r="C32" s="29">
-        <f>NPV(C31,C29:XFD29)</f>
-        <v>4554.177364201797</v>
+        <f>NPV(C31,C29:XFD29)*0.2+1700</f>
+        <v>2784.6280630040001</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
